--- a/static/SDM_tendik_non_pns.xlsx
+++ b/static/SDM_tendik_non_pns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\# REGISTRASI DAN STATISTIK\Website\202101\202101\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB3641-8781-44D6-A042-2AB7F06D3749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33F9BBB-232E-4FCF-BC24-15EEB6570F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3336,10 +3336,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D297" sqref="D297"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3421,6 +3421,10 @@
         <f>VLOOKUP(I2,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K2" t="str">
+        <f>TRIM(MID(J2,FIND("_",J2)+1,200))</f>
+        <v>Pertanian</v>
+      </c>
       <c r="L2" t="s">
         <v>818</v>
       </c>
@@ -3455,6 +3459,10 @@
         <f>VLOOKUP(I3,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="0">TRIM(MID(J3,FIND("_",J3)+1,200))</f>
+        <v>BUKK</v>
+      </c>
       <c r="L3" t="s">
         <v>818</v>
       </c>
@@ -3489,6 +3497,10 @@
         <f>VLOOKUP(I4,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>FEB</v>
+      </c>
       <c r="L4" t="s">
         <v>818</v>
       </c>
@@ -3523,6 +3535,10 @@
         <f>VLOOKUP(I5,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>991_UPBK</v>
       </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>UPBK</v>
+      </c>
       <c r="L5" t="s">
         <v>818</v>
       </c>
@@ -3557,6 +3573,10 @@
         <f>VLOOKUP(I6,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L6" t="s">
         <v>818</v>
       </c>
@@ -3591,6 +3611,10 @@
         <f>VLOOKUP(I7,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L7" t="s">
         <v>818</v>
       </c>
@@ -3625,6 +3649,10 @@
         <f>VLOOKUP(I8,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L8" t="s">
         <v>818</v>
       </c>
@@ -3659,6 +3687,10 @@
         <f>VLOOKUP(I9,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L9" t="s">
         <v>818</v>
       </c>
@@ -3693,6 +3725,10 @@
         <f>VLOOKUP(I10,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L10" t="s">
         <v>818</v>
       </c>
@@ -3727,6 +3763,10 @@
         <f>VLOOKUP(I11,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L11" t="s">
         <v>818</v>
       </c>
@@ -3761,6 +3801,10 @@
         <f>VLOOKUP(I12,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L12" t="s">
         <v>818</v>
       </c>
@@ -3795,6 +3839,10 @@
         <f>VLOOKUP(I13,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L13" t="s">
         <v>818</v>
       </c>
@@ -3829,6 +3877,10 @@
         <f>VLOOKUP(I14,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L14" t="s">
         <v>818</v>
       </c>
@@ -3863,6 +3915,10 @@
         <f>VLOOKUP(I15,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L15" t="s">
         <v>818</v>
       </c>
@@ -3897,6 +3953,10 @@
         <f>VLOOKUP(I16,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L16" t="s">
         <v>818</v>
       </c>
@@ -3931,6 +3991,10 @@
         <f>VLOOKUP(I17,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L17" t="s">
         <v>818</v>
       </c>
@@ -3965,6 +4029,10 @@
         <f>VLOOKUP(I18,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L18" t="s">
         <v>818</v>
       </c>
@@ -3999,6 +4067,10 @@
         <f>VLOOKUP(I19,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L19" t="s">
         <v>818</v>
       </c>
@@ -4033,6 +4105,10 @@
         <f>VLOOKUP(I20,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L20" t="s">
         <v>818</v>
       </c>
@@ -4067,6 +4143,10 @@
         <f>VLOOKUP(I21,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>FEB</v>
+      </c>
       <c r="L21" t="s">
         <v>818</v>
       </c>
@@ -4101,6 +4181,10 @@
         <f>VLOOKUP(I22,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L22" t="s">
         <v>818</v>
       </c>
@@ -4135,6 +4219,10 @@
         <f>VLOOKUP(I23,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>92_LP3M</v>
       </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>LP3M</v>
+      </c>
       <c r="L23" t="s">
         <v>818</v>
       </c>
@@ -4169,6 +4257,10 @@
         <f>VLOOKUP(I24,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L24" t="s">
         <v>818</v>
       </c>
@@ -4203,6 +4295,10 @@
         <f>VLOOKUP(I25,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L25" t="s">
         <v>818</v>
       </c>
@@ -4237,6 +4333,10 @@
         <f>VLOOKUP(I26,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L26" t="s">
         <v>818</v>
       </c>
@@ -4271,6 +4371,10 @@
         <f>VLOOKUP(I27,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L27" t="s">
         <v>818</v>
       </c>
@@ -4305,6 +4409,10 @@
         <f>VLOOKUP(I28,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L28" t="s">
         <v>818</v>
       </c>
@@ -4339,6 +4447,10 @@
         <f>VLOOKUP(I29,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>99_ULP</v>
       </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>ULP</v>
+      </c>
       <c r="L29" t="s">
         <v>818</v>
       </c>
@@ -4373,6 +4485,10 @@
         <f>VLOOKUP(I30,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L30" t="s">
         <v>818</v>
       </c>
@@ -4407,6 +4523,10 @@
         <f>VLOOKUP(I31,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>FKIP</v>
+      </c>
       <c r="L31" t="s">
         <v>818</v>
       </c>
@@ -4441,6 +4561,10 @@
         <f>VLOOKUP(I32,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L32" t="s">
         <v>818</v>
       </c>
@@ -4475,6 +4599,10 @@
         <f>VLOOKUP(I33,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v>FEB</v>
+      </c>
       <c r="L33" t="s">
         <v>818</v>
       </c>
@@ -4509,6 +4637,10 @@
         <f>VLOOKUP(I34,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v>Hukum</v>
+      </c>
       <c r="L34" t="s">
         <v>818</v>
       </c>
@@ -4543,6 +4675,10 @@
         <f>VLOOKUP(I35,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>LPPM</v>
+      </c>
       <c r="L35" t="s">
         <v>818</v>
       </c>
@@ -4577,6 +4713,10 @@
         <f>VLOOKUP(I36,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>99_ULP</v>
       </c>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v>ULP</v>
+      </c>
       <c r="L36" t="s">
         <v>818</v>
       </c>
@@ -4611,6 +4751,10 @@
         <f>VLOOKUP(I37,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKP</v>
+      </c>
       <c r="L37" t="s">
         <v>818</v>
       </c>
@@ -4645,6 +4789,10 @@
         <f>VLOOKUP(I38,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKP</v>
+      </c>
       <c r="L38" t="s">
         <v>818</v>
       </c>
@@ -4679,6 +4827,10 @@
         <f>VLOOKUP(I39,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L39" t="s">
         <v>818</v>
       </c>
@@ -4713,6 +4865,10 @@
         <f>VLOOKUP(I40,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L40" t="s">
         <v>818</v>
       </c>
@@ -4747,6 +4903,10 @@
         <f>VLOOKUP(I41,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>Hukum</v>
+      </c>
       <c r="L41" t="s">
         <v>818</v>
       </c>
@@ -4781,6 +4941,10 @@
         <f>VLOOKUP(I42,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L42" t="s">
         <v>818</v>
       </c>
@@ -4815,6 +4979,10 @@
         <f>VLOOKUP(I43,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L43" t="s">
         <v>818</v>
       </c>
@@ -4849,6 +5017,10 @@
         <f>VLOOKUP(I44,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L44" t="s">
         <v>818</v>
       </c>
@@ -4883,6 +5055,10 @@
         <f>VLOOKUP(I45,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>FKIP</v>
+      </c>
       <c r="L45" t="s">
         <v>818</v>
       </c>
@@ -4917,6 +5093,10 @@
         <f>VLOOKUP(I46,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L46" t="s">
         <v>818</v>
       </c>
@@ -4951,6 +5131,10 @@
         <f>VLOOKUP(I47,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>991_UPBK</v>
       </c>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v>UPBK</v>
+      </c>
       <c r="L47" t="s">
         <v>818</v>
       </c>
@@ -4985,6 +5169,10 @@
         <f>VLOOKUP(I48,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v>Hukum</v>
+      </c>
       <c r="L48" t="s">
         <v>818</v>
       </c>
@@ -5019,6 +5207,10 @@
         <f>VLOOKUP(I49,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L49" t="s">
         <v>818</v>
       </c>
@@ -5053,6 +5245,10 @@
         <f>VLOOKUP(I50,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L50" t="s">
         <v>818</v>
       </c>
@@ -5087,6 +5283,10 @@
         <f>VLOOKUP(I51,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v>FKIP</v>
+      </c>
       <c r="L51" t="s">
         <v>818</v>
       </c>
@@ -5121,6 +5321,10 @@
         <f>VLOOKUP(I52,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L52" t="s">
         <v>818</v>
       </c>
@@ -5155,6 +5359,10 @@
         <f>VLOOKUP(I53,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>FKIP</v>
+      </c>
       <c r="L53" t="s">
         <v>818</v>
       </c>
@@ -5189,6 +5397,10 @@
         <f>VLOOKUP(I54,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L54" t="s">
         <v>818</v>
       </c>
@@ -5223,6 +5435,10 @@
         <f>VLOOKUP(I55,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>Teknik</v>
+      </c>
       <c r="L55" t="s">
         <v>818</v>
       </c>
@@ -5257,6 +5473,10 @@
         <f>VLOOKUP(I56,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L56" t="s">
         <v>818</v>
       </c>
@@ -5291,6 +5511,10 @@
         <f>VLOOKUP(I57,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L57" t="s">
         <v>818</v>
       </c>
@@ -5325,6 +5549,10 @@
         <f>VLOOKUP(I58,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>Hukum</v>
+      </c>
       <c r="L58" t="s">
         <v>818</v>
       </c>
@@ -5359,6 +5587,10 @@
         <f>VLOOKUP(I59,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKP</v>
+      </c>
       <c r="L59" t="s">
         <v>818</v>
       </c>
@@ -5393,6 +5625,10 @@
         <f>VLOOKUP(I60,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L60" t="s">
         <v>818</v>
       </c>
@@ -5427,6 +5663,10 @@
         <f>VLOOKUP(I61,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K61" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKP</v>
+      </c>
       <c r="L61" t="s">
         <v>818</v>
       </c>
@@ -5461,6 +5701,10 @@
         <f>VLOOKUP(I62,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>96_PLI</v>
       </c>
+      <c r="K62" t="str">
+        <f t="shared" si="0"/>
+        <v>PLI</v>
+      </c>
       <c r="L62" t="s">
         <v>818</v>
       </c>
@@ -5495,6 +5739,10 @@
         <f>VLOOKUP(I63,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K63" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L63" t="s">
         <v>818</v>
       </c>
@@ -5529,6 +5777,10 @@
         <f>VLOOKUP(I64,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K64" t="str">
+        <f t="shared" si="0"/>
+        <v>BUKK</v>
+      </c>
       <c r="L64" t="s">
         <v>818</v>
       </c>
@@ -5563,6 +5815,10 @@
         <f>VLOOKUP(I65,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K65" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKP</v>
+      </c>
       <c r="L65" t="s">
         <v>818</v>
       </c>
@@ -5597,6 +5853,10 @@
         <f>VLOOKUP(I66,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K66" t="str">
+        <f t="shared" si="0"/>
+        <v>FISIP</v>
+      </c>
       <c r="L66" t="s">
         <v>818</v>
       </c>
@@ -5631,6 +5891,10 @@
         <f>VLOOKUP(I67,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K130" si="1">TRIM(MID(J67,FIND("_",J67)+1,200))</f>
+        <v>BAKP</v>
+      </c>
       <c r="L67" t="s">
         <v>818</v>
       </c>
@@ -5665,6 +5929,10 @@
         <f>VLOOKUP(I68,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K68" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L68" t="s">
         <v>818</v>
       </c>
@@ -5699,6 +5967,10 @@
         <f>VLOOKUP(I69,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K69" t="str">
+        <f t="shared" si="1"/>
+        <v>Teknik</v>
+      </c>
       <c r="L69" t="s">
         <v>818</v>
       </c>
@@ -5733,6 +6005,10 @@
         <f>VLOOKUP(I70,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K70" t="str">
+        <f t="shared" si="1"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L70" t="s">
         <v>818</v>
       </c>
@@ -5767,6 +6043,10 @@
         <f>VLOOKUP(I71,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K71" t="str">
+        <f t="shared" si="1"/>
+        <v>Teknik</v>
+      </c>
       <c r="L71" t="s">
         <v>818</v>
       </c>
@@ -5801,6 +6081,10 @@
         <f>VLOOKUP(I72,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K72" t="str">
+        <f t="shared" si="1"/>
+        <v>FEB</v>
+      </c>
       <c r="L72" t="s">
         <v>818</v>
       </c>
@@ -5835,6 +6119,10 @@
         <f>VLOOKUP(I73,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K73" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L73" t="s">
         <v>818</v>
       </c>
@@ -5869,6 +6157,10 @@
         <f>VLOOKUP(I74,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K74" t="str">
+        <f t="shared" si="1"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L74" t="s">
         <v>818</v>
       </c>
@@ -5903,6 +6195,10 @@
         <f>VLOOKUP(I75,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K75" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L75" t="s">
         <v>818</v>
       </c>
@@ -5937,6 +6233,10 @@
         <f>VLOOKUP(I76,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K76" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L76" t="s">
         <v>818</v>
       </c>
@@ -5971,6 +6271,10 @@
         <f>VLOOKUP(I77,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K77" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L77" t="s">
         <v>818</v>
       </c>
@@ -6005,6 +6309,10 @@
         <f>VLOOKUP(I78,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K78" t="str">
+        <f t="shared" si="1"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L78" t="s">
         <v>818</v>
       </c>
@@ -6039,6 +6347,10 @@
         <f>VLOOKUP(I79,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K79" t="str">
+        <f t="shared" si="1"/>
+        <v>FKIP</v>
+      </c>
       <c r="L79" t="s">
         <v>818</v>
       </c>
@@ -6073,6 +6385,10 @@
         <f>VLOOKUP(I80,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K80" t="str">
+        <f t="shared" si="1"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L80" t="s">
         <v>818</v>
       </c>
@@ -6107,6 +6423,10 @@
         <f>VLOOKUP(I81,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K81" t="str">
+        <f t="shared" si="1"/>
+        <v>FEB</v>
+      </c>
       <c r="L81" t="s">
         <v>818</v>
       </c>
@@ -6141,6 +6461,10 @@
         <f>VLOOKUP(I82,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K82" t="str">
+        <f t="shared" si="1"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L82" t="s">
         <v>818</v>
       </c>
@@ -6175,6 +6499,10 @@
         <f>VLOOKUP(I83,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K83" t="str">
+        <f t="shared" si="1"/>
+        <v>FISIP</v>
+      </c>
       <c r="L83" t="s">
         <v>818</v>
       </c>
@@ -6209,6 +6537,10 @@
         <f>VLOOKUP(I84,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K84" t="str">
+        <f t="shared" si="1"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L84" t="s">
         <v>818</v>
       </c>
@@ -6243,6 +6575,10 @@
         <f>VLOOKUP(I85,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>99_ULP</v>
       </c>
+      <c r="K85" t="str">
+        <f t="shared" si="1"/>
+        <v>ULP</v>
+      </c>
       <c r="L85" t="s">
         <v>818</v>
       </c>
@@ -6277,6 +6613,10 @@
         <f>VLOOKUP(I86,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K86" t="str">
+        <f t="shared" si="1"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L86" t="s">
         <v>818</v>
       </c>
@@ -6311,6 +6651,10 @@
         <f>VLOOKUP(I87,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K87" t="str">
+        <f t="shared" si="1"/>
+        <v>FKIP</v>
+      </c>
       <c r="L87" t="s">
         <v>818</v>
       </c>
@@ -6345,6 +6689,10 @@
         <f>VLOOKUP(I88,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>92_LP3M</v>
       </c>
+      <c r="K88" t="str">
+        <f t="shared" si="1"/>
+        <v>LP3M</v>
+      </c>
       <c r="L88" t="s">
         <v>818</v>
       </c>
@@ -6379,6 +6727,10 @@
         <f>VLOOKUP(I89,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K89" t="str">
+        <f t="shared" si="1"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L89" t="s">
         <v>818</v>
       </c>
@@ -6413,6 +6765,10 @@
         <f>VLOOKUP(I90,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>98_KLINIK</v>
       </c>
+      <c r="K90" t="str">
+        <f t="shared" si="1"/>
+        <v>KLINIK</v>
+      </c>
       <c r="L90" t="s">
         <v>818</v>
       </c>
@@ -6447,6 +6803,10 @@
         <f>VLOOKUP(I91,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K91" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L91" t="s">
         <v>818</v>
       </c>
@@ -6481,6 +6841,10 @@
         <f>VLOOKUP(I92,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K92" t="str">
+        <f t="shared" si="1"/>
+        <v>Hukum</v>
+      </c>
       <c r="L92" t="s">
         <v>818</v>
       </c>
@@ -6515,6 +6879,10 @@
         <f>VLOOKUP(I93,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K93" t="str">
+        <f t="shared" si="1"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L93" t="s">
         <v>818</v>
       </c>
@@ -6549,6 +6917,10 @@
         <f>VLOOKUP(I94,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K94" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L94" t="s">
         <v>818</v>
       </c>
@@ -6583,6 +6955,10 @@
         <f>VLOOKUP(I95,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K95" t="str">
+        <f t="shared" si="1"/>
+        <v>FISIP</v>
+      </c>
       <c r="L95" t="s">
         <v>818</v>
       </c>
@@ -6617,6 +6993,10 @@
         <f>VLOOKUP(I96,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K96" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L96" t="s">
         <v>818</v>
       </c>
@@ -6651,6 +7031,10 @@
         <f>VLOOKUP(I97,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K97" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L97" t="s">
         <v>818</v>
       </c>
@@ -6685,6 +7069,10 @@
         <f>VLOOKUP(I98,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K98" t="str">
+        <f t="shared" si="1"/>
+        <v>LPPM</v>
+      </c>
       <c r="L98" t="s">
         <v>818</v>
       </c>
@@ -6719,6 +7107,10 @@
         <f>VLOOKUP(I99,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K99" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L99" t="s">
         <v>818</v>
       </c>
@@ -6753,6 +7145,10 @@
         <f>VLOOKUP(I100,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K100" t="str">
+        <f t="shared" si="1"/>
+        <v>FKIP</v>
+      </c>
       <c r="L100" t="s">
         <v>818</v>
       </c>
@@ -6787,6 +7183,10 @@
         <f>VLOOKUP(I101,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K101" t="str">
+        <f t="shared" si="1"/>
+        <v>FKIP</v>
+      </c>
       <c r="L101" t="s">
         <v>818</v>
       </c>
@@ -6821,6 +7221,10 @@
         <f>VLOOKUP(I102,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K102" t="str">
+        <f t="shared" si="1"/>
+        <v>LPPM</v>
+      </c>
       <c r="L102" t="s">
         <v>818</v>
       </c>
@@ -6855,6 +7259,10 @@
         <f>VLOOKUP(I103,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K103" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L103" t="s">
         <v>818</v>
       </c>
@@ -6889,6 +7297,10 @@
         <f>VLOOKUP(I104,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K104" t="str">
+        <f t="shared" si="1"/>
+        <v>FEB</v>
+      </c>
       <c r="L104" t="s">
         <v>818</v>
       </c>
@@ -6923,6 +7335,10 @@
         <f>VLOOKUP(I105,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K105" t="str">
+        <f t="shared" si="1"/>
+        <v>FEB</v>
+      </c>
       <c r="L105" t="s">
         <v>818</v>
       </c>
@@ -6957,6 +7373,10 @@
         <f>VLOOKUP(I106,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K106" t="str">
+        <f t="shared" si="1"/>
+        <v>FEB</v>
+      </c>
       <c r="L106" t="s">
         <v>818</v>
       </c>
@@ -6991,6 +7411,10 @@
         <f>VLOOKUP(I107,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K107" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L107" t="s">
         <v>818</v>
       </c>
@@ -7025,6 +7449,10 @@
         <f>VLOOKUP(I108,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K108" t="str">
+        <f t="shared" si="1"/>
+        <v>FEB</v>
+      </c>
       <c r="L108" t="s">
         <v>818</v>
       </c>
@@ -7059,6 +7487,10 @@
         <f>VLOOKUP(I109,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K109" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L109" t="s">
         <v>818</v>
       </c>
@@ -7093,6 +7525,10 @@
         <f>VLOOKUP(I110,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K110" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKP</v>
+      </c>
       <c r="L110" t="s">
         <v>818</v>
       </c>
@@ -7127,6 +7563,10 @@
         <f>VLOOKUP(I111,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K111" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L111" t="s">
         <v>818</v>
       </c>
@@ -7161,6 +7601,10 @@
         <f>VLOOKUP(I112,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K112" t="str">
+        <f t="shared" si="1"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L112" t="s">
         <v>818</v>
       </c>
@@ -7195,6 +7639,10 @@
         <f>VLOOKUP(I113,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K113" t="str">
+        <f t="shared" si="1"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L113" t="s">
         <v>818</v>
       </c>
@@ -7229,6 +7677,10 @@
         <f>VLOOKUP(I114,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K114" t="str">
+        <f t="shared" si="1"/>
+        <v>Teknik</v>
+      </c>
       <c r="L114" t="s">
         <v>818</v>
       </c>
@@ -7263,6 +7715,10 @@
         <f>VLOOKUP(I115,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K115" t="str">
+        <f t="shared" si="1"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L115" t="s">
         <v>818</v>
       </c>
@@ -7297,6 +7753,10 @@
         <f>VLOOKUP(I116,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K116" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L116" t="s">
         <v>818</v>
       </c>
@@ -7331,6 +7791,10 @@
         <f>VLOOKUP(I117,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K117" t="str">
+        <f t="shared" si="1"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L117" t="s">
         <v>818</v>
       </c>
@@ -7365,6 +7829,10 @@
         <f>VLOOKUP(I118,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K118" t="str">
+        <f t="shared" si="1"/>
+        <v>FKIP</v>
+      </c>
       <c r="L118" t="s">
         <v>818</v>
       </c>
@@ -7399,6 +7867,10 @@
         <f>VLOOKUP(I119,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K119" t="str">
+        <f t="shared" si="1"/>
+        <v>FKIP</v>
+      </c>
       <c r="L119" t="s">
         <v>818</v>
       </c>
@@ -7433,6 +7905,10 @@
         <f>VLOOKUP(I120,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K120" t="str">
+        <f t="shared" si="1"/>
+        <v>Hukum</v>
+      </c>
       <c r="L120" t="s">
         <v>818</v>
       </c>
@@ -7467,6 +7943,10 @@
         <f>VLOOKUP(I121,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K121" t="str">
+        <f t="shared" si="1"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L121" t="s">
         <v>818</v>
       </c>
@@ -7501,6 +7981,10 @@
         <f>VLOOKUP(I122,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K122" t="str">
+        <f t="shared" si="1"/>
+        <v>BUKK</v>
+      </c>
       <c r="L122" t="s">
         <v>818</v>
       </c>
@@ -7535,6 +8019,10 @@
         <f>VLOOKUP(I123,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K123" t="str">
+        <f t="shared" si="1"/>
+        <v>Hukum</v>
+      </c>
       <c r="L123" t="s">
         <v>818</v>
       </c>
@@ -7569,6 +8057,10 @@
         <f>VLOOKUP(I124,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K124" t="str">
+        <f t="shared" si="1"/>
+        <v>Hukum</v>
+      </c>
       <c r="L124" t="s">
         <v>818</v>
       </c>
@@ -7603,6 +8095,10 @@
         <f>VLOOKUP(I125,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K125" t="str">
+        <f t="shared" si="1"/>
+        <v>Teknik</v>
+      </c>
       <c r="L125" t="s">
         <v>818</v>
       </c>
@@ -7637,6 +8133,10 @@
         <f>VLOOKUP(I126,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K126" t="str">
+        <f t="shared" si="1"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L126" t="s">
         <v>818</v>
       </c>
@@ -7671,6 +8171,10 @@
         <f>VLOOKUP(I127,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K127" t="str">
+        <f t="shared" si="1"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L127" t="s">
         <v>818</v>
       </c>
@@ -7705,6 +8209,10 @@
         <f>VLOOKUP(I128,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K128" t="str">
+        <f t="shared" si="1"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L128" t="s">
         <v>818</v>
       </c>
@@ -7739,6 +8247,10 @@
         <f>VLOOKUP(I129,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K129" t="str">
+        <f t="shared" si="1"/>
+        <v>Teknik</v>
+      </c>
       <c r="L129" t="s">
         <v>818</v>
       </c>
@@ -7773,6 +8285,10 @@
         <f>VLOOKUP(I130,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K130" t="str">
+        <f t="shared" si="1"/>
+        <v>FEB</v>
+      </c>
       <c r="L130" t="s">
         <v>818</v>
       </c>
@@ -7807,6 +8323,10 @@
         <f>VLOOKUP(I131,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K131" t="str">
+        <f t="shared" ref="K131:K194" si="2">TRIM(MID(J131,FIND("_",J131)+1,200))</f>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L131" t="s">
         <v>818</v>
       </c>
@@ -7841,6 +8361,10 @@
         <f>VLOOKUP(I132,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K132" t="str">
+        <f t="shared" si="2"/>
+        <v>BAKP</v>
+      </c>
       <c r="L132" t="s">
         <v>818</v>
       </c>
@@ -7875,6 +8399,10 @@
         <f>VLOOKUP(I133,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K133" t="str">
+        <f t="shared" si="2"/>
+        <v>FISIP</v>
+      </c>
       <c r="L133" t="s">
         <v>818</v>
       </c>
@@ -7909,6 +8437,10 @@
         <f>VLOOKUP(I134,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K134" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L134" t="s">
         <v>818</v>
       </c>
@@ -7943,6 +8475,10 @@
         <f>VLOOKUP(I135,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K135" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L135" t="s">
         <v>818</v>
       </c>
@@ -7977,6 +8513,10 @@
         <f>VLOOKUP(I136,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K136" t="str">
+        <f t="shared" si="2"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L136" t="s">
         <v>818</v>
       </c>
@@ -8011,6 +8551,10 @@
         <f>VLOOKUP(I137,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K137" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L137" t="s">
         <v>818</v>
       </c>
@@ -8045,6 +8589,10 @@
         <f>VLOOKUP(I138,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K138" t="str">
+        <f t="shared" si="2"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L138" t="s">
         <v>818</v>
       </c>
@@ -8079,6 +8627,10 @@
         <f>VLOOKUP(I139,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K139" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L139" t="s">
         <v>818</v>
       </c>
@@ -8113,6 +8665,10 @@
         <f>VLOOKUP(I140,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K140" t="str">
+        <f t="shared" si="2"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L140" t="s">
         <v>818</v>
       </c>
@@ -8147,6 +8703,10 @@
         <f>VLOOKUP(I141,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K141" t="str">
+        <f t="shared" si="2"/>
+        <v>BAKP</v>
+      </c>
       <c r="L141" t="s">
         <v>818</v>
       </c>
@@ -8181,6 +8741,10 @@
         <f>VLOOKUP(I142,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K142" t="str">
+        <f t="shared" si="2"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L142" t="s">
         <v>818</v>
       </c>
@@ -8215,6 +8779,10 @@
         <f>VLOOKUP(I143,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K143" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L143" t="s">
         <v>818</v>
       </c>
@@ -8249,6 +8817,10 @@
         <f>VLOOKUP(I144,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K144" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L144" t="s">
         <v>818</v>
       </c>
@@ -8283,6 +8855,10 @@
         <f>VLOOKUP(I145,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K145" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L145" t="s">
         <v>818</v>
       </c>
@@ -8317,6 +8893,10 @@
         <f>VLOOKUP(I146,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K146" t="str">
+        <f t="shared" si="2"/>
+        <v>FEB</v>
+      </c>
       <c r="L146" t="s">
         <v>818</v>
       </c>
@@ -8351,6 +8931,10 @@
         <f>VLOOKUP(I147,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K147" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L147" t="s">
         <v>818</v>
       </c>
@@ -8385,6 +8969,10 @@
         <f>VLOOKUP(I148,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K148" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L148" t="s">
         <v>818</v>
       </c>
@@ -8419,6 +9007,10 @@
         <f>VLOOKUP(I149,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K149" t="str">
+        <f t="shared" si="2"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L149" t="s">
         <v>818</v>
       </c>
@@ -8453,6 +9045,10 @@
         <f>VLOOKUP(I150,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K150" t="str">
+        <f t="shared" si="2"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L150" t="s">
         <v>818</v>
       </c>
@@ -8487,6 +9083,10 @@
         <f>VLOOKUP(I151,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K151" t="str">
+        <f t="shared" si="2"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L151" t="s">
         <v>818</v>
       </c>
@@ -8521,6 +9121,10 @@
         <f>VLOOKUP(I152,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K152" t="str">
+        <f t="shared" si="2"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L152" t="s">
         <v>818</v>
       </c>
@@ -8555,6 +9159,10 @@
         <f>VLOOKUP(I153,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K153" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L153" t="s">
         <v>818</v>
       </c>
@@ -8589,6 +9197,10 @@
         <f>VLOOKUP(I154,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K154" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L154" t="s">
         <v>818</v>
       </c>
@@ -8623,6 +9235,10 @@
         <f>VLOOKUP(I155,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K155" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L155" t="s">
         <v>818</v>
       </c>
@@ -8657,6 +9273,10 @@
         <f>VLOOKUP(I156,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K156" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L156" t="s">
         <v>818</v>
       </c>
@@ -8691,6 +9311,10 @@
         <f>VLOOKUP(I157,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K157" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L157" t="s">
         <v>818</v>
       </c>
@@ -8725,6 +9349,10 @@
         <f>VLOOKUP(I158,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K158" t="str">
+        <f t="shared" si="2"/>
+        <v>Teknik</v>
+      </c>
       <c r="L158" t="s">
         <v>818</v>
       </c>
@@ -8759,6 +9387,10 @@
         <f>VLOOKUP(I159,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K159" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L159" t="s">
         <v>818</v>
       </c>
@@ -8793,6 +9425,10 @@
         <f>VLOOKUP(I160,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K160" t="str">
+        <f t="shared" si="2"/>
+        <v>LPPM</v>
+      </c>
       <c r="L160" t="s">
         <v>818</v>
       </c>
@@ -8827,6 +9463,10 @@
         <f>VLOOKUP(I161,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K161" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L161" t="s">
         <v>818</v>
       </c>
@@ -8861,6 +9501,10 @@
         <f>VLOOKUP(I162,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K162" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L162" t="s">
         <v>818</v>
       </c>
@@ -8895,6 +9539,10 @@
         <f>VLOOKUP(I163,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K163" t="str">
+        <f t="shared" si="2"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L163" t="s">
         <v>818</v>
       </c>
@@ -8929,6 +9577,10 @@
         <f>VLOOKUP(I164,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K164" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L164" t="s">
         <v>818</v>
       </c>
@@ -8963,6 +9615,10 @@
         <f>VLOOKUP(I165,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K165" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L165" t="s">
         <v>818</v>
       </c>
@@ -8997,6 +9653,10 @@
         <f>VLOOKUP(I166,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K166" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L166" t="s">
         <v>818</v>
       </c>
@@ -9031,6 +9691,10 @@
         <f>VLOOKUP(I167,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K167" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L167" t="s">
         <v>818</v>
       </c>
@@ -9065,6 +9729,10 @@
         <f>VLOOKUP(I168,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K168" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L168" t="s">
         <v>818</v>
       </c>
@@ -9099,6 +9767,10 @@
         <f>VLOOKUP(I169,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K169" t="str">
+        <f t="shared" si="2"/>
+        <v>BAKP</v>
+      </c>
       <c r="L169" t="s">
         <v>818</v>
       </c>
@@ -9133,6 +9805,10 @@
         <f>VLOOKUP(I170,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K170" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L170" t="s">
         <v>818</v>
       </c>
@@ -9167,6 +9843,10 @@
         <f>VLOOKUP(I171,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K171" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L171" t="s">
         <v>818</v>
       </c>
@@ -9201,6 +9881,10 @@
         <f>VLOOKUP(I172,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K172" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L172" t="s">
         <v>818</v>
       </c>
@@ -9235,6 +9919,10 @@
         <f>VLOOKUP(I173,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K173" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L173" t="s">
         <v>818</v>
       </c>
@@ -9269,6 +9957,10 @@
         <f>VLOOKUP(I174,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K174" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L174" t="s">
         <v>818</v>
       </c>
@@ -9303,6 +9995,10 @@
         <f>VLOOKUP(I175,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K175" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L175" t="s">
         <v>818</v>
       </c>
@@ -9337,6 +10033,10 @@
         <f>VLOOKUP(I176,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K176" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L176" t="s">
         <v>818</v>
       </c>
@@ -9371,6 +10071,10 @@
         <f>VLOOKUP(I177,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K177" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L177" t="s">
         <v>818</v>
       </c>
@@ -9405,6 +10109,10 @@
         <f>VLOOKUP(I178,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K178" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L178" t="s">
         <v>818</v>
       </c>
@@ -9439,6 +10147,10 @@
         <f>VLOOKUP(I179,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K179" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L179" t="s">
         <v>818</v>
       </c>
@@ -9473,6 +10185,10 @@
         <f>VLOOKUP(I180,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K180" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L180" t="s">
         <v>818</v>
       </c>
@@ -9507,6 +10223,10 @@
         <f>VLOOKUP(I181,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K181" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L181" t="s">
         <v>818</v>
       </c>
@@ -9541,6 +10261,10 @@
         <f>VLOOKUP(I182,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K182" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L182" t="s">
         <v>818</v>
       </c>
@@ -9575,6 +10299,10 @@
         <f>VLOOKUP(I183,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K183" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L183" t="s">
         <v>818</v>
       </c>
@@ -9609,6 +10337,10 @@
         <f>VLOOKUP(I184,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K184" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L184" t="s">
         <v>818</v>
       </c>
@@ -9643,6 +10375,10 @@
         <f>VLOOKUP(I185,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K185" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L185" t="s">
         <v>818</v>
       </c>
@@ -9677,6 +10413,10 @@
         <f>VLOOKUP(I186,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K186" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L186" t="s">
         <v>818</v>
       </c>
@@ -9711,6 +10451,10 @@
         <f>VLOOKUP(I187,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K187" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L187" t="s">
         <v>818</v>
       </c>
@@ -9745,6 +10489,10 @@
         <f>VLOOKUP(I188,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K188" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L188" t="s">
         <v>818</v>
       </c>
@@ -9779,6 +10527,10 @@
         <f>VLOOKUP(I189,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K189" t="str">
+        <f t="shared" si="2"/>
+        <v>FKIP</v>
+      </c>
       <c r="L189" t="s">
         <v>818</v>
       </c>
@@ -9813,6 +10565,10 @@
         <f>VLOOKUP(I190,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K190" t="str">
+        <f t="shared" si="2"/>
+        <v>Hukum</v>
+      </c>
       <c r="L190" t="s">
         <v>818</v>
       </c>
@@ -9847,6 +10603,10 @@
         <f>VLOOKUP(I191,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K191" t="str">
+        <f t="shared" si="2"/>
+        <v>Hukum</v>
+      </c>
       <c r="L191" t="s">
         <v>818</v>
       </c>
@@ -9881,6 +10641,10 @@
         <f>VLOOKUP(I192,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K192" t="str">
+        <f t="shared" si="2"/>
+        <v>Hukum</v>
+      </c>
       <c r="L192" t="s">
         <v>818</v>
       </c>
@@ -9915,6 +10679,10 @@
         <f>VLOOKUP(I193,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K193" t="str">
+        <f t="shared" si="2"/>
+        <v>Hukum</v>
+      </c>
       <c r="L193" t="s">
         <v>818</v>
       </c>
@@ -9949,6 +10717,10 @@
         <f>VLOOKUP(I194,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K194" t="str">
+        <f t="shared" si="2"/>
+        <v>BUKK</v>
+      </c>
       <c r="L194" t="s">
         <v>818</v>
       </c>
@@ -9983,6 +10755,10 @@
         <f>VLOOKUP(I195,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K195" t="str">
+        <f t="shared" ref="K195:K258" si="3">TRIM(MID(J195,FIND("_",J195)+1,200))</f>
+        <v>FEB</v>
+      </c>
       <c r="L195" t="s">
         <v>818</v>
       </c>
@@ -10017,6 +10793,10 @@
         <f>VLOOKUP(I196,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K196" t="str">
+        <f t="shared" si="3"/>
+        <v>FEB</v>
+      </c>
       <c r="L196" t="s">
         <v>818</v>
       </c>
@@ -10051,6 +10831,10 @@
         <f>VLOOKUP(I197,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K197" t="str">
+        <f t="shared" si="3"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L197" t="s">
         <v>818</v>
       </c>
@@ -10085,6 +10869,10 @@
         <f>VLOOKUP(I198,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K198" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L198" t="s">
         <v>818</v>
       </c>
@@ -10119,6 +10907,10 @@
         <f>VLOOKUP(I199,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>93_LPPM</v>
       </c>
+      <c r="K199" t="str">
+        <f t="shared" si="3"/>
+        <v>LPPM</v>
+      </c>
       <c r="L199" t="s">
         <v>818</v>
       </c>
@@ -10153,6 +10945,10 @@
         <f>VLOOKUP(I200,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K200" t="str">
+        <f t="shared" si="3"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L200" t="s">
         <v>818</v>
       </c>
@@ -10187,6 +10983,10 @@
         <f>VLOOKUP(I201,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K201" t="str">
+        <f t="shared" si="3"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L201" t="s">
         <v>818</v>
       </c>
@@ -10221,6 +11021,10 @@
         <f>VLOOKUP(I202,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K202" t="str">
+        <f t="shared" si="3"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L202" t="s">
         <v>818</v>
       </c>
@@ -10255,6 +11059,10 @@
         <f>VLOOKUP(I203,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K203" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L203" t="s">
         <v>818</v>
       </c>
@@ -10289,6 +11097,10 @@
         <f>VLOOKUP(I204,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K204" t="str">
+        <f t="shared" si="3"/>
+        <v>FISIP</v>
+      </c>
       <c r="L204" t="s">
         <v>818</v>
       </c>
@@ -10323,6 +11135,10 @@
         <f>VLOOKUP(I205,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K205" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L205" t="s">
         <v>818</v>
       </c>
@@ -10357,6 +11173,10 @@
         <f>VLOOKUP(I206,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K206" t="str">
+        <f t="shared" si="3"/>
+        <v>FISIP</v>
+      </c>
       <c r="L206" t="s">
         <v>818</v>
       </c>
@@ -10391,6 +11211,10 @@
         <f>VLOOKUP(I207,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K207" t="str">
+        <f t="shared" si="3"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L207" t="s">
         <v>818</v>
       </c>
@@ -10425,6 +11249,10 @@
         <f>VLOOKUP(I208,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K208" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L208" t="s">
         <v>818</v>
       </c>
@@ -10459,6 +11287,10 @@
         <f>VLOOKUP(I209,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K209" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L209" t="s">
         <v>818</v>
       </c>
@@ -10493,6 +11325,10 @@
         <f>VLOOKUP(I210,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K210" t="str">
+        <f t="shared" si="3"/>
+        <v>FISIP</v>
+      </c>
       <c r="L210" t="s">
         <v>818</v>
       </c>
@@ -10527,6 +11363,10 @@
         <f>VLOOKUP(I211,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>96_PLI</v>
       </c>
+      <c r="K211" t="str">
+        <f t="shared" si="3"/>
+        <v>PLI</v>
+      </c>
       <c r="L211" t="s">
         <v>818</v>
       </c>
@@ -10561,6 +11401,10 @@
         <f>VLOOKUP(I212,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K212" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L212" t="s">
         <v>818</v>
       </c>
@@ -10595,6 +11439,10 @@
         <f>VLOOKUP(I213,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>92_LP3M</v>
       </c>
+      <c r="K213" t="str">
+        <f t="shared" si="3"/>
+        <v>LP3M</v>
+      </c>
       <c r="L213" t="s">
         <v>818</v>
       </c>
@@ -10629,6 +11477,10 @@
         <f>VLOOKUP(I214,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K214" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L214" t="s">
         <v>818</v>
       </c>
@@ -10663,6 +11515,10 @@
         <f>VLOOKUP(I215,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K215" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L215" t="s">
         <v>818</v>
       </c>
@@ -10697,6 +11553,10 @@
         <f>VLOOKUP(I216,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K216" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L216" t="s">
         <v>818</v>
       </c>
@@ -10731,6 +11591,10 @@
         <f>VLOOKUP(I217,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K217" t="str">
+        <f t="shared" si="3"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L217" t="s">
         <v>818</v>
       </c>
@@ -10765,6 +11629,10 @@
         <f>VLOOKUP(I218,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K218" t="str">
+        <f t="shared" si="3"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L218" t="s">
         <v>818</v>
       </c>
@@ -10799,6 +11667,10 @@
         <f>VLOOKUP(I219,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K219" t="str">
+        <f t="shared" si="3"/>
+        <v>FKIP</v>
+      </c>
       <c r="L219" t="s">
         <v>818</v>
       </c>
@@ -10833,6 +11705,10 @@
         <f>VLOOKUP(I220,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K220" t="str">
+        <f t="shared" si="3"/>
+        <v>FEB</v>
+      </c>
       <c r="L220" t="s">
         <v>818</v>
       </c>
@@ -10867,6 +11743,10 @@
         <f>VLOOKUP(I221,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>92_LP3M</v>
       </c>
+      <c r="K221" t="str">
+        <f t="shared" si="3"/>
+        <v>LP3M</v>
+      </c>
       <c r="L221" t="s">
         <v>818</v>
       </c>
@@ -10901,6 +11781,10 @@
         <f>VLOOKUP(I222,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K222" t="str">
+        <f t="shared" si="3"/>
+        <v>FKIP</v>
+      </c>
       <c r="L222" t="s">
         <v>818</v>
       </c>
@@ -10935,6 +11819,10 @@
         <f>VLOOKUP(I223,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K223" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L223" t="s">
         <v>818</v>
       </c>
@@ -10969,6 +11857,10 @@
         <f>VLOOKUP(I224,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K224" t="str">
+        <f t="shared" si="3"/>
+        <v>FISIP</v>
+      </c>
       <c r="L224" t="s">
         <v>818</v>
       </c>
@@ -11003,6 +11895,10 @@
         <f>VLOOKUP(I225,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K225" t="str">
+        <f t="shared" si="3"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L225" t="s">
         <v>818</v>
       </c>
@@ -11037,6 +11933,10 @@
         <f>VLOOKUP(I226,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K226" t="str">
+        <f t="shared" si="3"/>
+        <v>Hukum</v>
+      </c>
       <c r="L226" t="s">
         <v>818</v>
       </c>
@@ -11071,6 +11971,10 @@
         <f>VLOOKUP(I227,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K227" t="str">
+        <f t="shared" si="3"/>
+        <v>BAKP</v>
+      </c>
       <c r="L227" t="s">
         <v>818</v>
       </c>
@@ -11105,6 +12009,10 @@
         <f>VLOOKUP(I228,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>991_UPBK</v>
       </c>
+      <c r="K228" t="str">
+        <f t="shared" si="3"/>
+        <v>UPBK</v>
+      </c>
       <c r="L228" t="s">
         <v>818</v>
       </c>
@@ -11139,6 +12047,10 @@
         <f>VLOOKUP(I229,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K229" t="str">
+        <f t="shared" si="3"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L229" t="s">
         <v>818</v>
       </c>
@@ -11173,6 +12085,10 @@
         <f>VLOOKUP(I230,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>92_LP3M</v>
       </c>
+      <c r="K230" t="str">
+        <f t="shared" si="3"/>
+        <v>LP3M</v>
+      </c>
       <c r="L230" t="s">
         <v>818</v>
       </c>
@@ -11207,6 +12123,10 @@
         <f>VLOOKUP(I231,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>96_PLI</v>
       </c>
+      <c r="K231" t="str">
+        <f t="shared" si="3"/>
+        <v>PLI</v>
+      </c>
       <c r="L231" t="s">
         <v>818</v>
       </c>
@@ -11241,6 +12161,10 @@
         <f>VLOOKUP(I232,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K232" t="str">
+        <f t="shared" si="3"/>
+        <v>FKIP</v>
+      </c>
       <c r="L232" t="s">
         <v>818</v>
       </c>
@@ -11275,6 +12199,10 @@
         <f>VLOOKUP(I233,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K233" t="str">
+        <f t="shared" si="3"/>
+        <v>FEB</v>
+      </c>
       <c r="L233" t="s">
         <v>818</v>
       </c>
@@ -11309,6 +12237,10 @@
         <f>VLOOKUP(I234,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K234" t="str">
+        <f t="shared" si="3"/>
+        <v>FEB</v>
+      </c>
       <c r="L234" t="s">
         <v>818</v>
       </c>
@@ -11343,6 +12275,10 @@
         <f>VLOOKUP(I235,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K235" t="str">
+        <f t="shared" si="3"/>
+        <v>FISIP</v>
+      </c>
       <c r="L235" t="s">
         <v>818</v>
       </c>
@@ -11377,6 +12313,10 @@
         <f>VLOOKUP(I236,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K236" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L236" t="s">
         <v>818</v>
       </c>
@@ -11411,6 +12351,10 @@
         <f>VLOOKUP(I237,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K237" t="str">
+        <f t="shared" si="3"/>
+        <v>FISIP</v>
+      </c>
       <c r="L237" t="s">
         <v>818</v>
       </c>
@@ -11445,6 +12389,10 @@
         <f>VLOOKUP(I238,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K238" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L238" t="s">
         <v>818</v>
       </c>
@@ -11479,6 +12427,10 @@
         <f>VLOOKUP(I239,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K239" t="str">
+        <f t="shared" si="3"/>
+        <v>FKIP</v>
+      </c>
       <c r="L239" t="s">
         <v>818</v>
       </c>
@@ -11513,6 +12465,10 @@
         <f>VLOOKUP(I240,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K240" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L240" t="s">
         <v>818</v>
       </c>
@@ -11547,6 +12503,10 @@
         <f>VLOOKUP(I241,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K241" t="str">
+        <f t="shared" si="3"/>
+        <v>FISIP</v>
+      </c>
       <c r="L241" t="s">
         <v>818</v>
       </c>
@@ -11581,6 +12541,10 @@
         <f>VLOOKUP(I242,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K242" t="str">
+        <f t="shared" si="3"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L242" t="s">
         <v>818</v>
       </c>
@@ -11615,6 +12579,10 @@
         <f>VLOOKUP(I243,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K243" t="str">
+        <f t="shared" si="3"/>
+        <v>BAKP</v>
+      </c>
       <c r="L243" t="s">
         <v>818</v>
       </c>
@@ -11649,6 +12617,10 @@
         <f>VLOOKUP(I244,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K244" t="str">
+        <f t="shared" si="3"/>
+        <v>FEB</v>
+      </c>
       <c r="L244" t="s">
         <v>818</v>
       </c>
@@ -11683,6 +12655,10 @@
         <f>VLOOKUP(I245,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>991_UPBK</v>
       </c>
+      <c r="K245" t="str">
+        <f t="shared" si="3"/>
+        <v>UPBK</v>
+      </c>
       <c r="L245" t="s">
         <v>818</v>
       </c>
@@ -11717,6 +12693,10 @@
         <f>VLOOKUP(I246,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K246" t="str">
+        <f t="shared" si="3"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L246" t="s">
         <v>818</v>
       </c>
@@ -11748,6 +12728,10 @@
         <f>VLOOKUP(I247,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>99_ULP</v>
       </c>
+      <c r="K247" t="str">
+        <f t="shared" si="3"/>
+        <v>ULP</v>
+      </c>
       <c r="L247" t="s">
         <v>818</v>
       </c>
@@ -11782,6 +12766,10 @@
         <f>VLOOKUP(I248,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>991_UPBK</v>
       </c>
+      <c r="K248" t="str">
+        <f t="shared" si="3"/>
+        <v>UPBK</v>
+      </c>
       <c r="L248" t="s">
         <v>818</v>
       </c>
@@ -11816,6 +12804,10 @@
         <f>VLOOKUP(I249,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K249" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L249" t="s">
         <v>818</v>
       </c>
@@ -11850,6 +12842,10 @@
         <f>VLOOKUP(I250,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K250" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L250" t="s">
         <v>818</v>
       </c>
@@ -11884,6 +12880,10 @@
         <f>VLOOKUP(I251,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K251" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L251" t="s">
         <v>818</v>
       </c>
@@ -11918,6 +12918,10 @@
         <f>VLOOKUP(I252,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K252" t="str">
+        <f t="shared" si="3"/>
+        <v>Teknik</v>
+      </c>
       <c r="L252" t="s">
         <v>818</v>
       </c>
@@ -11952,6 +12956,10 @@
         <f>VLOOKUP(I253,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>94_SPI</v>
       </c>
+      <c r="K253" t="str">
+        <f t="shared" si="3"/>
+        <v>SPI</v>
+      </c>
       <c r="L253" t="s">
         <v>818</v>
       </c>
@@ -11986,6 +12994,10 @@
         <f>VLOOKUP(I254,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>98_KLINIK</v>
       </c>
+      <c r="K254" t="str">
+        <f t="shared" si="3"/>
+        <v>KLINIK</v>
+      </c>
       <c r="L254" t="s">
         <v>818</v>
       </c>
@@ -12020,6 +13032,10 @@
         <f>VLOOKUP(I255,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K255" t="str">
+        <f t="shared" si="3"/>
+        <v>BUKK</v>
+      </c>
       <c r="L255" t="s">
         <v>818</v>
       </c>
@@ -12054,6 +13070,10 @@
         <f>VLOOKUP(I256,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K256" t="str">
+        <f t="shared" si="3"/>
+        <v>FKIP</v>
+      </c>
       <c r="L256" t="s">
         <v>818</v>
       </c>
@@ -12069,11 +13089,11 @@
         <v>20</v>
       </c>
       <c r="D257" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E257" t="str">
         <f>VLOOKUP(D257,Sheet1!$H$2:$I$20,2,FALSE)</f>
-        <v>4_S1 Profesi</v>
+        <v>5_S1</v>
       </c>
       <c r="G257" t="s">
         <v>802</v>
@@ -12088,6 +13108,10 @@
         <f>VLOOKUP(I257,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>98_KLINIK</v>
       </c>
+      <c r="K257" t="str">
+        <f t="shared" si="3"/>
+        <v>KLINIK</v>
+      </c>
       <c r="L257" t="s">
         <v>818</v>
       </c>
@@ -12122,6 +13146,10 @@
         <f>VLOOKUP(I258,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K258" t="str">
+        <f t="shared" si="3"/>
+        <v>FKIP</v>
+      </c>
       <c r="L258" t="s">
         <v>818</v>
       </c>
@@ -12156,6 +13184,10 @@
         <f>VLOOKUP(I259,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K259" t="str">
+        <f t="shared" ref="K259:K304" si="4">TRIM(MID(J259,FIND("_",J259)+1,200))</f>
+        <v>FKIP</v>
+      </c>
       <c r="L259" t="s">
         <v>818</v>
       </c>
@@ -12190,6 +13222,10 @@
         <f>VLOOKUP(I260,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K260" t="str">
+        <f t="shared" si="4"/>
+        <v>BUKK</v>
+      </c>
       <c r="L260" t="s">
         <v>818</v>
       </c>
@@ -12224,6 +13260,10 @@
         <f>VLOOKUP(I261,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K261" t="str">
+        <f t="shared" si="4"/>
+        <v>BUKK</v>
+      </c>
       <c r="L261" t="s">
         <v>818</v>
       </c>
@@ -12258,6 +13298,10 @@
         <f>VLOOKUP(I262,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K262" t="str">
+        <f t="shared" si="4"/>
+        <v>BUKK</v>
+      </c>
       <c r="L262" t="s">
         <v>818</v>
       </c>
@@ -12292,6 +13336,10 @@
         <f>VLOOKUP(I263,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K263" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L263" t="s">
         <v>818</v>
       </c>
@@ -12326,6 +13374,10 @@
         <f>VLOOKUP(I264,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K264" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L264" t="s">
         <v>818</v>
       </c>
@@ -12360,6 +13412,10 @@
         <f>VLOOKUP(I265,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K265" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L265" t="s">
         <v>818</v>
       </c>
@@ -12394,6 +13450,10 @@
         <f>VLOOKUP(I266,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K266" t="str">
+        <f t="shared" si="4"/>
+        <v>FEB</v>
+      </c>
       <c r="L266" t="s">
         <v>818</v>
       </c>
@@ -12428,6 +13488,10 @@
         <f>VLOOKUP(I267,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K267" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L267" t="s">
         <v>818</v>
       </c>
@@ -12462,6 +13526,10 @@
         <f>VLOOKUP(I268,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K268" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L268" t="s">
         <v>818</v>
       </c>
@@ -12496,6 +13564,10 @@
         <f>VLOOKUP(I269,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K269" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L269" t="s">
         <v>818</v>
       </c>
@@ -12530,6 +13602,10 @@
         <f>VLOOKUP(I270,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K270" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L270" t="s">
         <v>818</v>
       </c>
@@ -12564,6 +13640,10 @@
         <f>VLOOKUP(I271,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K271" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L271" t="s">
         <v>818</v>
       </c>
@@ -12598,6 +13678,10 @@
         <f>VLOOKUP(I272,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K272" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L272" t="s">
         <v>818</v>
       </c>
@@ -12632,6 +13716,10 @@
         <f>VLOOKUP(I273,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K273" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L273" t="s">
         <v>818</v>
       </c>
@@ -12666,6 +13754,10 @@
         <f>VLOOKUP(I274,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K274" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L274" t="s">
         <v>818</v>
       </c>
@@ -12700,6 +13792,10 @@
         <f>VLOOKUP(I275,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K275" t="str">
+        <f t="shared" si="4"/>
+        <v>FISIP</v>
+      </c>
       <c r="L275" t="s">
         <v>818</v>
       </c>
@@ -12734,6 +13830,10 @@
         <f>VLOOKUP(I276,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K276" t="str">
+        <f t="shared" si="4"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L276" t="s">
         <v>818</v>
       </c>
@@ -12768,6 +13868,10 @@
         <f>VLOOKUP(I277,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>5_FEB</v>
       </c>
+      <c r="K277" t="str">
+        <f t="shared" si="4"/>
+        <v>FEB</v>
+      </c>
       <c r="L277" t="s">
         <v>818</v>
       </c>
@@ -12802,6 +13906,10 @@
         <f>VLOOKUP(I278,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>94_SPI</v>
       </c>
+      <c r="K278" t="str">
+        <f t="shared" si="4"/>
+        <v>SPI</v>
+      </c>
       <c r="L278" t="s">
         <v>818</v>
       </c>
@@ -12836,6 +13944,10 @@
         <f>VLOOKUP(I279,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>96_PLI</v>
       </c>
+      <c r="K279" t="str">
+        <f t="shared" si="4"/>
+        <v>PLI</v>
+      </c>
       <c r="L279" t="s">
         <v>818</v>
       </c>
@@ -12870,6 +13982,10 @@
         <f>VLOOKUP(I280,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K280" t="str">
+        <f t="shared" si="4"/>
+        <v>Hukum</v>
+      </c>
       <c r="L280" t="s">
         <v>818</v>
       </c>
@@ -12904,6 +14020,10 @@
         <f>VLOOKUP(I281,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>9_BAKP</v>
       </c>
+      <c r="K281" t="str">
+        <f t="shared" si="4"/>
+        <v>BAKP</v>
+      </c>
       <c r="L281" t="s">
         <v>818</v>
       </c>
@@ -12938,6 +14058,10 @@
         <f>VLOOKUP(I282,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>8_Pascasarjana</v>
       </c>
+      <c r="K282" t="str">
+        <f t="shared" si="4"/>
+        <v>Pascasarjana</v>
+      </c>
       <c r="L282" t="s">
         <v>818</v>
       </c>
@@ -12972,6 +14096,10 @@
         <f>VLOOKUP(I283,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K283" t="str">
+        <f t="shared" si="4"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L283" t="s">
         <v>818</v>
       </c>
@@ -13006,6 +14134,10 @@
         <f>VLOOKUP(I284,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K284" t="str">
+        <f t="shared" si="4"/>
+        <v>BUKK</v>
+      </c>
       <c r="L284" t="s">
         <v>818</v>
       </c>
@@ -13040,6 +14172,10 @@
         <f>VLOOKUP(I285,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K285" t="str">
+        <f t="shared" si="4"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L285" t="s">
         <v>818</v>
       </c>
@@ -13074,6 +14210,10 @@
         <f>VLOOKUP(I286,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>99_ULP</v>
       </c>
+      <c r="K286" t="str">
+        <f t="shared" si="4"/>
+        <v>ULP</v>
+      </c>
       <c r="L286" t="s">
         <v>818</v>
       </c>
@@ -13108,6 +14248,10 @@
         <f>VLOOKUP(I287,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>95_PERPUSTAKAAN</v>
       </c>
+      <c r="K287" t="str">
+        <f t="shared" si="4"/>
+        <v>PERPUSTAKAAN</v>
+      </c>
       <c r="L287" t="s">
         <v>818</v>
       </c>
@@ -13142,6 +14286,10 @@
         <f>VLOOKUP(I288,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>1_Hukum</v>
       </c>
+      <c r="K288" t="str">
+        <f t="shared" si="4"/>
+        <v>Hukum</v>
+      </c>
       <c r="L288" t="s">
         <v>818</v>
       </c>
@@ -13176,6 +14324,10 @@
         <f>VLOOKUP(I289,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>6_FISIP</v>
       </c>
+      <c r="K289" t="str">
+        <f t="shared" si="4"/>
+        <v>FISIP</v>
+      </c>
       <c r="L289" t="s">
         <v>818</v>
       </c>
@@ -13210,6 +14362,10 @@
         <f>VLOOKUP(I290,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K290" t="str">
+        <f t="shared" si="4"/>
+        <v>Teknik</v>
+      </c>
       <c r="L290" t="s">
         <v>818</v>
       </c>
@@ -13244,6 +14400,10 @@
         <f>VLOOKUP(I291,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K291" t="str">
+        <f t="shared" si="4"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L291" t="s">
         <v>818</v>
       </c>
@@ -13278,6 +14438,10 @@
         <f>VLOOKUP(I292,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>92_LP3M</v>
       </c>
+      <c r="K292" t="str">
+        <f t="shared" si="4"/>
+        <v>LP3M</v>
+      </c>
       <c r="L292" t="s">
         <v>818</v>
       </c>
@@ -13312,6 +14476,10 @@
         <f>VLOOKUP(I293,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>97_PUSDAINFO</v>
       </c>
+      <c r="K293" t="str">
+        <f t="shared" si="4"/>
+        <v>PUSDAINFO</v>
+      </c>
       <c r="L293" t="s">
         <v>818</v>
       </c>
@@ -13346,6 +14514,10 @@
         <f>VLOOKUP(I294,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K294" t="str">
+        <f t="shared" si="4"/>
+        <v>FKIP</v>
+      </c>
       <c r="L294" t="s">
         <v>818</v>
       </c>
@@ -13380,6 +14552,10 @@
         <f>VLOOKUP(I295,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K295" t="str">
+        <f t="shared" si="4"/>
+        <v>FKIP</v>
+      </c>
       <c r="L295" t="s">
         <v>818</v>
       </c>
@@ -13414,6 +14590,10 @@
         <f>VLOOKUP(I296,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>4_Pertanian</v>
       </c>
+      <c r="K296" t="str">
+        <f t="shared" si="4"/>
+        <v>Pertanian</v>
+      </c>
       <c r="L296" t="s">
         <v>818</v>
       </c>
@@ -13448,6 +14628,10 @@
         <f>VLOOKUP(I297,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K297" t="str">
+        <f t="shared" si="4"/>
+        <v>Teknik</v>
+      </c>
       <c r="L297" t="s">
         <v>818</v>
       </c>
@@ -13482,6 +14666,10 @@
         <f>VLOOKUP(I298,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>2_FKIP</v>
       </c>
+      <c r="K298" t="str">
+        <f t="shared" si="4"/>
+        <v>FKIP</v>
+      </c>
       <c r="L298" t="s">
         <v>818</v>
       </c>
@@ -13516,6 +14704,10 @@
         <f>VLOOKUP(I299,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>7_Kedokteran</v>
       </c>
+      <c r="K299" t="str">
+        <f t="shared" si="4"/>
+        <v>Kedokteran</v>
+      </c>
       <c r="L299" t="s">
         <v>818</v>
       </c>
@@ -13550,6 +14742,10 @@
         <f>VLOOKUP(I300,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>91_BUKK</v>
       </c>
+      <c r="K300" t="str">
+        <f t="shared" si="4"/>
+        <v>BUKK</v>
+      </c>
       <c r="L300" t="s">
         <v>818</v>
       </c>
@@ -13581,6 +14777,10 @@
         <f>VLOOKUP(I301,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K301" t="str">
+        <f t="shared" si="4"/>
+        <v>Teknik</v>
+      </c>
       <c r="L301" t="s">
         <v>818</v>
       </c>
@@ -13612,6 +14812,10 @@
         <f>VLOOKUP(I302,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K302" t="str">
+        <f t="shared" si="4"/>
+        <v>Teknik</v>
+      </c>
       <c r="L302" t="s">
         <v>818</v>
       </c>
@@ -13643,6 +14847,10 @@
         <f>VLOOKUP(I303,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
       </c>
+      <c r="K303" t="str">
+        <f t="shared" si="4"/>
+        <v>Teknik</v>
+      </c>
       <c r="L303" t="s">
         <v>818</v>
       </c>
@@ -13673,6 +14881,10 @@
       <c r="J304" t="str">
         <f>VLOOKUP(I304,Sheet1!$B$20:$C$42,2,FALSE)</f>
         <v>3_Teknik</v>
+      </c>
+      <c r="K304" t="str">
+        <f t="shared" si="4"/>
+        <v>Teknik</v>
       </c>
       <c r="L304" t="s">
         <v>818</v>

--- a/static/SDM_tendik_non_pns.xlsx
+++ b/static/SDM_tendik_non_pns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\# REGISTRASI DAN STATISTIK\Website\202101\202101\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33F9BBB-232E-4FCF-BC24-15EEB6570F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45DD022-786D-449C-8679-FE7131D82F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,9 +374,6 @@
     <t>94_SPI</t>
   </si>
   <si>
-    <t>98_KLINIK</t>
-  </si>
-  <si>
     <t>99_ULP</t>
   </si>
   <si>
@@ -2486,6 +2483,9 @@
   </si>
   <si>
     <t>Tendik non PNS</t>
+  </si>
+  <si>
+    <t>98_Klinik</t>
   </si>
 </sst>
 </file>
@@ -3336,7 +3336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3409,7 +3409,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H2" t="s">
         <v>82</v>
@@ -3426,15 +3426,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -3447,7 +3447,7 @@
         <v>9_SD</v>
       </c>
       <c r="G3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
@@ -3464,15 +3464,15 @@
         <v>BUKK</v>
       </c>
       <c r="L3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -3502,15 +3502,15 @@
         <v>FEB</v>
       </c>
       <c r="L4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -3523,7 +3523,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H5" t="s">
         <v>80</v>
@@ -3540,12 +3540,12 @@
         <v>UPBK</v>
       </c>
       <c r="L5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -3561,13 +3561,13 @@
         <v>9_SD</v>
       </c>
       <c r="G6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H6" t="s">
         <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J6" t="str">
         <f>VLOOKUP(I6,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -3578,15 +3578,15 @@
         <v>PERPUSTAKAAN</v>
       </c>
       <c r="L6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -3599,7 +3599,7 @@
         <v>9_SD</v>
       </c>
       <c r="G7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H7" t="s">
         <v>82</v>
@@ -3616,15 +3616,15 @@
         <v>BUKK</v>
       </c>
       <c r="L7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -3637,7 +3637,7 @@
         <v>8_SLTP</v>
       </c>
       <c r="G8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -3654,15 +3654,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -3675,7 +3675,7 @@
         <v>5_S1</v>
       </c>
       <c r="G9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H9" t="s">
         <v>80</v>
@@ -3692,15 +3692,15 @@
         <v>Teknik</v>
       </c>
       <c r="L9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -3713,7 +3713,7 @@
         <v>9_SD</v>
       </c>
       <c r="G10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -3730,15 +3730,15 @@
         <v>Teknik</v>
       </c>
       <c r="L10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -3751,7 +3751,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -3768,15 +3768,15 @@
         <v>Teknik</v>
       </c>
       <c r="L11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -3806,15 +3806,15 @@
         <v>Teknik</v>
       </c>
       <c r="L12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -3844,15 +3844,15 @@
         <v>Teknik</v>
       </c>
       <c r="L13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -3882,15 +3882,15 @@
         <v>BUKK</v>
       </c>
       <c r="L14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -3920,15 +3920,15 @@
         <v>BUKK</v>
       </c>
       <c r="L15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -3941,7 +3941,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H16" t="s">
         <v>80</v>
@@ -3958,15 +3958,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -3996,15 +3996,15 @@
         <v>BUKK</v>
       </c>
       <c r="L17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -4034,15 +4034,15 @@
         <v>BUKK</v>
       </c>
       <c r="L18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -4072,15 +4072,15 @@
         <v>Teknik</v>
       </c>
       <c r="L19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -4093,7 +4093,7 @@
         <v>9_SD</v>
       </c>
       <c r="G20" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
@@ -4110,15 +4110,15 @@
         <v>Teknik</v>
       </c>
       <c r="L20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -4131,7 +4131,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
@@ -4148,15 +4148,15 @@
         <v>FEB</v>
       </c>
       <c r="L21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -4186,15 +4186,15 @@
         <v>BUKK</v>
       </c>
       <c r="L22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -4224,15 +4224,15 @@
         <v>LP3M</v>
       </c>
       <c r="L23" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -4262,15 +4262,15 @@
         <v>Teknik</v>
       </c>
       <c r="L24" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -4283,7 +4283,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G25" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H25" t="s">
         <v>84</v>
@@ -4300,15 +4300,15 @@
         <v>Teknik</v>
       </c>
       <c r="L25" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -4321,7 +4321,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H26" t="s">
         <v>80</v>
@@ -4338,15 +4338,15 @@
         <v>Teknik</v>
       </c>
       <c r="L26" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -4376,15 +4376,15 @@
         <v>BUKK</v>
       </c>
       <c r="L27" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -4397,7 +4397,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H28" t="s">
         <v>84</v>
@@ -4414,15 +4414,15 @@
         <v>BUKK</v>
       </c>
       <c r="L28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -4452,15 +4452,15 @@
         <v>ULP</v>
       </c>
       <c r="L29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -4473,7 +4473,7 @@
         <v>5_S1</v>
       </c>
       <c r="G30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H30" t="s">
         <v>80</v>
@@ -4490,15 +4490,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -4511,7 +4511,7 @@
         <v>5_S1</v>
       </c>
       <c r="G31" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H31" t="s">
         <v>80</v>
@@ -4528,15 +4528,15 @@
         <v>FKIP</v>
       </c>
       <c r="L31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -4549,7 +4549,7 @@
         <v>5_S1</v>
       </c>
       <c r="G32" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H32" t="s">
         <v>80</v>
@@ -4566,15 +4566,15 @@
         <v>PUSDAINFO</v>
       </c>
       <c r="L32" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -4587,7 +4587,7 @@
         <v>5_S1</v>
       </c>
       <c r="G33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H33" t="s">
         <v>80</v>
@@ -4604,15 +4604,15 @@
         <v>FEB</v>
       </c>
       <c r="L33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
@@ -4625,7 +4625,7 @@
         <v>5_S1</v>
       </c>
       <c r="G34" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H34" t="s">
         <v>80</v>
@@ -4642,15 +4642,15 @@
         <v>Hukum</v>
       </c>
       <c r="L34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -4663,7 +4663,7 @@
         <v>2_S2</v>
       </c>
       <c r="G35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H35" t="s">
         <v>80</v>
@@ -4680,15 +4680,15 @@
         <v>LPPM</v>
       </c>
       <c r="L35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -4701,7 +4701,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G36" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H36" t="s">
         <v>80</v>
@@ -4718,15 +4718,15 @@
         <v>ULP</v>
       </c>
       <c r="L36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -4739,7 +4739,7 @@
         <v>5_S1</v>
       </c>
       <c r="G37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H37" t="s">
         <v>80</v>
@@ -4756,15 +4756,15 @@
         <v>BAKP</v>
       </c>
       <c r="L37" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -4777,7 +4777,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H38" t="s">
         <v>82</v>
@@ -4794,15 +4794,15 @@
         <v>BAKP</v>
       </c>
       <c r="L38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -4832,15 +4832,15 @@
         <v>BUKK</v>
       </c>
       <c r="L39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -4859,7 +4859,7 @@
         <v>82</v>
       </c>
       <c r="I40" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J40" t="str">
         <f>VLOOKUP(I40,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -4870,15 +4870,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -4908,15 +4908,15 @@
         <v>Hukum</v>
       </c>
       <c r="L41" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -4946,15 +4946,15 @@
         <v>BUKK</v>
       </c>
       <c r="L42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -4984,15 +4984,15 @@
         <v>BUKK</v>
       </c>
       <c r="L43" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -5022,15 +5022,15 @@
         <v>BUKK</v>
       </c>
       <c r="L44" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -5060,15 +5060,15 @@
         <v>FKIP</v>
       </c>
       <c r="L45" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -5081,7 +5081,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G46" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H46" t="s">
         <v>80</v>
@@ -5098,15 +5098,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L46" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -5119,7 +5119,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G47" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H47" t="s">
         <v>80</v>
@@ -5136,15 +5136,15 @@
         <v>UPBK</v>
       </c>
       <c r="L47" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -5157,7 +5157,7 @@
         <v>2_S2</v>
       </c>
       <c r="G48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H48" t="s">
         <v>80</v>
@@ -5174,15 +5174,15 @@
         <v>Hukum</v>
       </c>
       <c r="L48" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -5195,7 +5195,7 @@
         <v>5_S1</v>
       </c>
       <c r="G49" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H49" t="s">
         <v>80</v>
@@ -5212,15 +5212,15 @@
         <v>BUKK</v>
       </c>
       <c r="L49" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -5233,7 +5233,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G50" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H50" t="s">
         <v>80</v>
@@ -5250,15 +5250,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L50" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -5288,15 +5288,15 @@
         <v>FKIP</v>
       </c>
       <c r="L51" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -5309,13 +5309,13 @@
         <v>5_S1</v>
       </c>
       <c r="G52" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H52" t="s">
         <v>80</v>
       </c>
       <c r="I52" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J52" t="str">
         <f>VLOOKUP(I52,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -5326,15 +5326,15 @@
         <v>PERPUSTAKAAN</v>
       </c>
       <c r="L52" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -5347,7 +5347,7 @@
         <v>5_S1</v>
       </c>
       <c r="G53" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H53" t="s">
         <v>80</v>
@@ -5364,15 +5364,15 @@
         <v>FKIP</v>
       </c>
       <c r="L53" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -5385,7 +5385,7 @@
         <v>5_S1</v>
       </c>
       <c r="G54" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H54" t="s">
         <v>80</v>
@@ -5402,15 +5402,15 @@
         <v>Teknik</v>
       </c>
       <c r="L54" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
@@ -5440,15 +5440,15 @@
         <v>Teknik</v>
       </c>
       <c r="L55" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -5461,7 +5461,7 @@
         <v>5_S1</v>
       </c>
       <c r="G56" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H56" t="s">
         <v>80</v>
@@ -5478,15 +5478,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L56" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -5499,7 +5499,7 @@
         <v>5_S1</v>
       </c>
       <c r="G57" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H57" t="s">
         <v>80</v>
@@ -5516,15 +5516,15 @@
         <v>BUKK</v>
       </c>
       <c r="L57" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -5537,7 +5537,7 @@
         <v>5_S1</v>
       </c>
       <c r="G58" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H58" t="s">
         <v>80</v>
@@ -5554,15 +5554,15 @@
         <v>Hukum</v>
       </c>
       <c r="L58" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -5575,7 +5575,7 @@
         <v>5_S1</v>
       </c>
       <c r="G59" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H59" t="s">
         <v>80</v>
@@ -5592,15 +5592,15 @@
         <v>BAKP</v>
       </c>
       <c r="L59" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -5613,7 +5613,7 @@
         <v>5_S1</v>
       </c>
       <c r="G60" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H60" t="s">
         <v>80</v>
@@ -5630,15 +5630,15 @@
         <v>BUKK</v>
       </c>
       <c r="L60" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -5651,7 +5651,7 @@
         <v>5_S1</v>
       </c>
       <c r="G61" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H61" t="s">
         <v>80</v>
@@ -5668,15 +5668,15 @@
         <v>BAKP</v>
       </c>
       <c r="L61" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
@@ -5689,7 +5689,7 @@
         <v>2_S2</v>
       </c>
       <c r="G62" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H62" t="s">
         <v>80</v>
@@ -5706,15 +5706,15 @@
         <v>PLI</v>
       </c>
       <c r="L62" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
@@ -5727,7 +5727,7 @@
         <v>5_S1</v>
       </c>
       <c r="G63" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H63" t="s">
         <v>80</v>
@@ -5744,15 +5744,15 @@
         <v>BUKK</v>
       </c>
       <c r="L63" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
@@ -5765,7 +5765,7 @@
         <v>5_S1</v>
       </c>
       <c r="G64" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H64" t="s">
         <v>80</v>
@@ -5782,15 +5782,15 @@
         <v>BUKK</v>
       </c>
       <c r="L64" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
         <v>20</v>
@@ -5803,7 +5803,7 @@
         <v>5_S1</v>
       </c>
       <c r="G65" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H65" t="s">
         <v>80</v>
@@ -5820,15 +5820,15 @@
         <v>BAKP</v>
       </c>
       <c r="L65" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -5841,7 +5841,7 @@
         <v>2_S2</v>
       </c>
       <c r="G66" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H66" t="s">
         <v>80</v>
@@ -5858,15 +5858,15 @@
         <v>FISIP</v>
       </c>
       <c r="L66" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -5879,7 +5879,7 @@
         <v>5_S1</v>
       </c>
       <c r="G67" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H67" t="s">
         <v>80</v>
@@ -5896,15 +5896,15 @@
         <v>BAKP</v>
       </c>
       <c r="L67" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
@@ -5917,7 +5917,7 @@
         <v>2_S2</v>
       </c>
       <c r="G68" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H68" t="s">
         <v>80</v>
@@ -5934,15 +5934,15 @@
         <v>BAKP</v>
       </c>
       <c r="L68" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
@@ -5955,7 +5955,7 @@
         <v>6_Diploma</v>
       </c>
       <c r="G69" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H69" t="s">
         <v>80</v>
@@ -5972,15 +5972,15 @@
         <v>Teknik</v>
       </c>
       <c r="L69" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -5993,7 +5993,7 @@
         <v>5_S1</v>
       </c>
       <c r="G70" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H70" t="s">
         <v>80</v>
@@ -6010,15 +6010,15 @@
         <v>PUSDAINFO</v>
       </c>
       <c r="L70" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C71" t="s">
         <v>20</v>
@@ -6048,15 +6048,15 @@
         <v>Teknik</v>
       </c>
       <c r="L71" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -6086,15 +6086,15 @@
         <v>FEB</v>
       </c>
       <c r="L72" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -6124,15 +6124,15 @@
         <v>BAKP</v>
       </c>
       <c r="L73" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -6145,13 +6145,13 @@
         <v>7_SLTA</v>
       </c>
       <c r="G74" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H74" t="s">
         <v>80</v>
       </c>
       <c r="I74" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J74" t="str">
         <f>VLOOKUP(I74,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -6162,15 +6162,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L74" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
@@ -6183,7 +6183,7 @@
         <v>5_S1</v>
       </c>
       <c r="G75" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H75" t="s">
         <v>80</v>
@@ -6200,15 +6200,15 @@
         <v>BUKK</v>
       </c>
       <c r="L75" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
         <v>20</v>
@@ -6221,7 +6221,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G76" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H76" t="s">
         <v>80</v>
@@ -6238,15 +6238,15 @@
         <v>BUKK</v>
       </c>
       <c r="L76" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
@@ -6259,7 +6259,7 @@
         <v>5_S1</v>
       </c>
       <c r="G77" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H77" t="s">
         <v>80</v>
@@ -6276,15 +6276,15 @@
         <v>BUKK</v>
       </c>
       <c r="L77" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
         <v>20</v>
@@ -6297,7 +6297,7 @@
         <v>5_S1</v>
       </c>
       <c r="G78" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H78" t="s">
         <v>80</v>
@@ -6314,15 +6314,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L78" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -6335,7 +6335,7 @@
         <v>5_S1</v>
       </c>
       <c r="G79" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H79" t="s">
         <v>80</v>
@@ -6352,15 +6352,15 @@
         <v>FKIP</v>
       </c>
       <c r="L79" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -6373,13 +6373,13 @@
         <v>5_S1</v>
       </c>
       <c r="G80" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H80" t="s">
         <v>80</v>
       </c>
       <c r="I80" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J80" t="str">
         <f>VLOOKUP(I80,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -6390,15 +6390,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L80" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
         <v>20</v>
@@ -6428,15 +6428,15 @@
         <v>FEB</v>
       </c>
       <c r="L81" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -6455,7 +6455,7 @@
         <v>80</v>
       </c>
       <c r="I82" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J82" t="str">
         <f>VLOOKUP(I82,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -6466,15 +6466,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L82" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -6487,7 +6487,7 @@
         <v>5_S1</v>
       </c>
       <c r="G83" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H83" t="s">
         <v>80</v>
@@ -6504,15 +6504,15 @@
         <v>FISIP</v>
       </c>
       <c r="L83" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -6525,7 +6525,7 @@
         <v>5_S1</v>
       </c>
       <c r="G84" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H84" t="s">
         <v>80</v>
@@ -6542,15 +6542,15 @@
         <v>PUSDAINFO</v>
       </c>
       <c r="L84" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
@@ -6563,7 +6563,7 @@
         <v>2_S2</v>
       </c>
       <c r="G85" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H85" t="s">
         <v>80</v>
@@ -6580,15 +6580,15 @@
         <v>ULP</v>
       </c>
       <c r="L85" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -6601,7 +6601,7 @@
         <v>5_S1</v>
       </c>
       <c r="G86" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H86" t="s">
         <v>80</v>
@@ -6618,15 +6618,15 @@
         <v>PUSDAINFO</v>
       </c>
       <c r="L86" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
@@ -6656,15 +6656,15 @@
         <v>FKIP</v>
       </c>
       <c r="L87" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
@@ -6677,7 +6677,7 @@
         <v>5_S1</v>
       </c>
       <c r="G88" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H88" t="s">
         <v>80</v>
@@ -6694,15 +6694,15 @@
         <v>LP3M</v>
       </c>
       <c r="L88" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -6715,7 +6715,7 @@
         <v>6_Diploma</v>
       </c>
       <c r="G89" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H89" t="s">
         <v>80</v>
@@ -6732,15 +6732,15 @@
         <v>PUSDAINFO</v>
       </c>
       <c r="L89" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
@@ -6759,26 +6759,26 @@
         <v>85</v>
       </c>
       <c r="I90" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J90" t="str">
         <f>VLOOKUP(I90,Sheet1!$B$20:$C$42,2,FALSE)</f>
-        <v>98_KLINIK</v>
+        <v>98_Klinik</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="1"/>
-        <v>KLINIK</v>
+        <v>Klinik</v>
       </c>
       <c r="L90" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -6791,7 +6791,7 @@
         <v>5_S1</v>
       </c>
       <c r="G91" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H91" t="s">
         <v>80</v>
@@ -6808,15 +6808,15 @@
         <v>BAKP</v>
       </c>
       <c r="L91" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -6829,7 +6829,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G92" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H92" t="s">
         <v>80</v>
@@ -6846,15 +6846,15 @@
         <v>Hukum</v>
       </c>
       <c r="L92" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -6884,15 +6884,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L93" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -6922,15 +6922,15 @@
         <v>BUKK</v>
       </c>
       <c r="L94" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -6943,7 +6943,7 @@
         <v>5_S1</v>
       </c>
       <c r="G95" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H95" t="s">
         <v>80</v>
@@ -6960,15 +6960,15 @@
         <v>FISIP</v>
       </c>
       <c r="L95" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -6981,7 +6981,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G96" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H96" t="s">
         <v>80</v>
@@ -6998,15 +6998,15 @@
         <v>BAKP</v>
       </c>
       <c r="L96" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -7036,15 +7036,15 @@
         <v>BUKK</v>
       </c>
       <c r="L97" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -7057,7 +7057,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G98" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H98" t="s">
         <v>82</v>
@@ -7074,15 +7074,15 @@
         <v>LPPM</v>
       </c>
       <c r="L98" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C99" t="s">
         <v>20</v>
@@ -7095,7 +7095,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G99" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H99" t="s">
         <v>80</v>
@@ -7112,15 +7112,15 @@
         <v>BUKK</v>
       </c>
       <c r="L99" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B100" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -7150,15 +7150,15 @@
         <v>FKIP</v>
       </c>
       <c r="L100" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -7171,7 +7171,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G101" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H101" t="s">
         <v>80</v>
@@ -7188,15 +7188,15 @@
         <v>FKIP</v>
       </c>
       <c r="L101" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
@@ -7209,7 +7209,7 @@
         <v>5_S1</v>
       </c>
       <c r="G102" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H102" t="s">
         <v>80</v>
@@ -7226,15 +7226,15 @@
         <v>LPPM</v>
       </c>
       <c r="L102" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -7264,15 +7264,15 @@
         <v>BUKK</v>
       </c>
       <c r="L103" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
@@ -7302,15 +7302,15 @@
         <v>FEB</v>
       </c>
       <c r="L104" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -7340,15 +7340,15 @@
         <v>FEB</v>
       </c>
       <c r="L105" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
@@ -7361,7 +7361,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G106" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H106" t="s">
         <v>80</v>
@@ -7378,15 +7378,15 @@
         <v>FEB</v>
       </c>
       <c r="L106" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
@@ -7399,7 +7399,7 @@
         <v>5_S1</v>
       </c>
       <c r="G107" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H107" t="s">
         <v>80</v>
@@ -7416,15 +7416,15 @@
         <v>BUKK</v>
       </c>
       <c r="L107" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B108" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -7437,7 +7437,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G108" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H108" t="s">
         <v>80</v>
@@ -7454,15 +7454,15 @@
         <v>FEB</v>
       </c>
       <c r="L108" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -7475,7 +7475,7 @@
         <v>5_S1</v>
       </c>
       <c r="G109" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H109" t="s">
         <v>80</v>
@@ -7492,15 +7492,15 @@
         <v>BAKP</v>
       </c>
       <c r="L109" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B110" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
@@ -7513,7 +7513,7 @@
         <v>5_S1</v>
       </c>
       <c r="G110" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H110" t="s">
         <v>80</v>
@@ -7530,15 +7530,15 @@
         <v>BAKP</v>
       </c>
       <c r="L110" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -7551,7 +7551,7 @@
         <v>2_S2</v>
       </c>
       <c r="G111" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H111" t="s">
         <v>80</v>
@@ -7568,15 +7568,15 @@
         <v>BUKK</v>
       </c>
       <c r="L111" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B112" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C112" t="s">
         <v>20</v>
@@ -7606,15 +7606,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L112" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
@@ -7627,7 +7627,7 @@
         <v>2_S2</v>
       </c>
       <c r="G113" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H113" t="s">
         <v>80</v>
@@ -7644,15 +7644,15 @@
         <v>PUSDAINFO</v>
       </c>
       <c r="L113" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B114" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
@@ -7665,7 +7665,7 @@
         <v>6_Diploma</v>
       </c>
       <c r="G114" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H114" t="s">
         <v>80</v>
@@ -7682,15 +7682,15 @@
         <v>Teknik</v>
       </c>
       <c r="L114" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C115" t="s">
         <v>20</v>
@@ -7703,7 +7703,7 @@
         <v>6_Diploma</v>
       </c>
       <c r="G115" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H115" t="s">
         <v>80</v>
@@ -7720,15 +7720,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L115" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C116" t="s">
         <v>20</v>
@@ -7741,7 +7741,7 @@
         <v>5_S1</v>
       </c>
       <c r="G116" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H116" t="s">
         <v>80</v>
@@ -7758,15 +7758,15 @@
         <v>BUKK</v>
       </c>
       <c r="L116" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C117" t="s">
         <v>20</v>
@@ -7785,7 +7785,7 @@
         <v>80</v>
       </c>
       <c r="I117" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J117" t="str">
         <f>VLOOKUP(I117,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -7796,15 +7796,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L117" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s">
         <v>20</v>
@@ -7817,7 +7817,7 @@
         <v>5_S1</v>
       </c>
       <c r="G118" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H118" t="s">
         <v>80</v>
@@ -7834,15 +7834,15 @@
         <v>FKIP</v>
       </c>
       <c r="L118" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
@@ -7872,15 +7872,15 @@
         <v>FKIP</v>
       </c>
       <c r="L119" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -7893,7 +7893,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G120" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H120" t="s">
         <v>80</v>
@@ -7910,15 +7910,15 @@
         <v>Hukum</v>
       </c>
       <c r="L120" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C121" t="s">
         <v>20</v>
@@ -7931,13 +7931,13 @@
         <v>5_S1</v>
       </c>
       <c r="G121" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H121" t="s">
         <v>80</v>
       </c>
       <c r="I121" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J121" t="str">
         <f>VLOOKUP(I121,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -7948,15 +7948,15 @@
         <v>PERPUSTAKAAN</v>
       </c>
       <c r="L121" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -7986,15 +7986,15 @@
         <v>BUKK</v>
       </c>
       <c r="L122" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -8024,15 +8024,15 @@
         <v>Hukum</v>
       </c>
       <c r="L123" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -8045,7 +8045,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G124" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H124" t="s">
         <v>82</v>
@@ -8062,15 +8062,15 @@
         <v>Hukum</v>
       </c>
       <c r="L124" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
@@ -8083,7 +8083,7 @@
         <v>6_Diploma</v>
       </c>
       <c r="G125" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H125" t="s">
         <v>80</v>
@@ -8100,15 +8100,15 @@
         <v>Teknik</v>
       </c>
       <c r="L125" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B126" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
@@ -8127,7 +8127,7 @@
         <v>80</v>
       </c>
       <c r="I126" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J126" t="str">
         <f>VLOOKUP(I126,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -8138,15 +8138,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L126" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B127" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
@@ -8159,7 +8159,7 @@
         <v>5_S1</v>
       </c>
       <c r="G127" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H127" t="s">
         <v>80</v>
@@ -8176,15 +8176,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L127" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B128" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
@@ -8197,7 +8197,7 @@
         <v>5_S1</v>
       </c>
       <c r="G128" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H128" t="s">
         <v>80</v>
@@ -8214,15 +8214,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L128" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B129" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C129" t="s">
         <v>20</v>
@@ -8252,15 +8252,15 @@
         <v>Teknik</v>
       </c>
       <c r="L129" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C130" t="s">
         <v>20</v>
@@ -8273,7 +8273,7 @@
         <v>2_S2</v>
       </c>
       <c r="G130" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H130" t="s">
         <v>80</v>
@@ -8290,15 +8290,15 @@
         <v>FEB</v>
       </c>
       <c r="L130" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B131" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
@@ -8311,13 +8311,13 @@
         <v>6_Diploma</v>
       </c>
       <c r="G131" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H131" t="s">
         <v>80</v>
       </c>
       <c r="I131" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J131" t="str">
         <f>VLOOKUP(I131,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -8328,15 +8328,15 @@
         <v>PERPUSTAKAAN</v>
       </c>
       <c r="L131" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B132" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C132" t="s">
         <v>20</v>
@@ -8349,7 +8349,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G132" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H132" t="s">
         <v>80</v>
@@ -8366,15 +8366,15 @@
         <v>BAKP</v>
       </c>
       <c r="L132" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B133" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
@@ -8387,7 +8387,7 @@
         <v>5_S1</v>
       </c>
       <c r="G133" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H133" t="s">
         <v>80</v>
@@ -8404,15 +8404,15 @@
         <v>FISIP</v>
       </c>
       <c r="L133" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B134" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
@@ -8425,7 +8425,7 @@
         <v>5_S1</v>
       </c>
       <c r="G134" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H134" t="s">
         <v>80</v>
@@ -8442,15 +8442,15 @@
         <v>BUKK</v>
       </c>
       <c r="L134" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B135" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C135" t="s">
         <v>20</v>
@@ -8480,15 +8480,15 @@
         <v>FKIP</v>
       </c>
       <c r="L135" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C136" t="s">
         <v>20</v>
@@ -8501,13 +8501,13 @@
         <v>5_S1</v>
       </c>
       <c r="G136" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H136" t="s">
         <v>80</v>
       </c>
       <c r="I136" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J136" t="str">
         <f>VLOOKUP(I136,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -8518,15 +8518,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L136" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
@@ -8556,15 +8556,15 @@
         <v>Teknik</v>
       </c>
       <c r="L137" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -8577,13 +8577,13 @@
         <v>5_S1</v>
       </c>
       <c r="G138" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H138" t="s">
         <v>80</v>
       </c>
       <c r="I138" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J138" t="str">
         <f>VLOOKUP(I138,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -8594,15 +8594,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L138" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B139" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
@@ -8632,15 +8632,15 @@
         <v>BUKK</v>
       </c>
       <c r="L139" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C140" t="s">
         <v>20</v>
@@ -8653,7 +8653,7 @@
         <v>5_S1</v>
       </c>
       <c r="G140" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H140" t="s">
         <v>80</v>
@@ -8670,15 +8670,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L140" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
@@ -8691,7 +8691,7 @@
         <v>5_S1</v>
       </c>
       <c r="G141" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H141" t="s">
         <v>80</v>
@@ -8708,15 +8708,15 @@
         <v>BAKP</v>
       </c>
       <c r="L141" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B142" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
@@ -8729,7 +8729,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G142" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H142" t="s">
         <v>80</v>
@@ -8746,15 +8746,15 @@
         <v>PUSDAINFO</v>
       </c>
       <c r="L142" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
@@ -8784,15 +8784,15 @@
         <v>BUKK</v>
       </c>
       <c r="L143" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B144" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C144" t="s">
         <v>20</v>
@@ -8822,15 +8822,15 @@
         <v>Teknik</v>
       </c>
       <c r="L144" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B145" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
@@ -8860,15 +8860,15 @@
         <v>BUKK</v>
       </c>
       <c r="L145" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B146" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
@@ -8898,15 +8898,15 @@
         <v>FEB</v>
       </c>
       <c r="L146" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -8936,15 +8936,15 @@
         <v>FKIP</v>
       </c>
       <c r="L147" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B148" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C148" t="s">
         <v>20</v>
@@ -8957,7 +8957,7 @@
         <v>2_S2</v>
       </c>
       <c r="G148" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H148" t="s">
         <v>80</v>
@@ -8974,15 +8974,15 @@
         <v>BUKK</v>
       </c>
       <c r="L148" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B149" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
@@ -8995,7 +8995,7 @@
         <v>5_S1</v>
       </c>
       <c r="G149" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H149" t="s">
         <v>80</v>
@@ -9012,15 +9012,15 @@
         <v>PUSDAINFO</v>
       </c>
       <c r="L149" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B150" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C150" t="s">
         <v>20</v>
@@ -9033,13 +9033,13 @@
         <v>6_Diploma</v>
       </c>
       <c r="G150" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H150" t="s">
         <v>80</v>
       </c>
       <c r="I150" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J150" t="str">
         <f>VLOOKUP(I150,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -9050,15 +9050,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L150" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B151" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C151" t="s">
         <v>20</v>
@@ -9071,7 +9071,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G151" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H151" t="s">
         <v>80</v>
@@ -9088,15 +9088,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L151" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
@@ -9109,13 +9109,13 @@
         <v>5_S1</v>
       </c>
       <c r="G152" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H152" t="s">
         <v>80</v>
       </c>
       <c r="I152" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J152" t="str">
         <f>VLOOKUP(I152,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -9126,15 +9126,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L152" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B153" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
@@ -9147,7 +9147,7 @@
         <v>5_S1</v>
       </c>
       <c r="G153" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H153" t="s">
         <v>80</v>
@@ -9164,15 +9164,15 @@
         <v>BUKK</v>
       </c>
       <c r="L153" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C154" t="s">
         <v>13</v>
@@ -9185,7 +9185,7 @@
         <v>5_S1</v>
       </c>
       <c r="G154" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H154" t="s">
         <v>80</v>
@@ -9202,15 +9202,15 @@
         <v>BUKK</v>
       </c>
       <c r="L154" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
@@ -9240,15 +9240,15 @@
         <v>BUKK</v>
       </c>
       <c r="L155" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B156" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
@@ -9278,15 +9278,15 @@
         <v>BUKK</v>
       </c>
       <c r="L156" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B157" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
@@ -9316,15 +9316,15 @@
         <v>Teknik</v>
       </c>
       <c r="L157" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B158" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
@@ -9354,15 +9354,15 @@
         <v>Teknik</v>
       </c>
       <c r="L158" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B159" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C159" t="s">
         <v>13</v>
@@ -9375,7 +9375,7 @@
         <v>5_S1</v>
       </c>
       <c r="G159" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H159" t="s">
         <v>80</v>
@@ -9392,15 +9392,15 @@
         <v>BUKK</v>
       </c>
       <c r="L159" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B160" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
@@ -9413,7 +9413,7 @@
         <v>5_S1</v>
       </c>
       <c r="G160" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H160" t="s">
         <v>80</v>
@@ -9430,15 +9430,15 @@
         <v>LPPM</v>
       </c>
       <c r="L160" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B161" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -9451,7 +9451,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G161" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H161" t="s">
         <v>80</v>
@@ -9468,15 +9468,15 @@
         <v>FKIP</v>
       </c>
       <c r="L161" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B162" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C162" t="s">
         <v>13</v>
@@ -9489,7 +9489,7 @@
         <v>8_SLTP</v>
       </c>
       <c r="G162" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H162" t="s">
         <v>82</v>
@@ -9506,15 +9506,15 @@
         <v>BUKK</v>
       </c>
       <c r="L162" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B163" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
@@ -9533,7 +9533,7 @@
         <v>80</v>
       </c>
       <c r="I163" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J163" t="str">
         <f>VLOOKUP(I163,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -9544,15 +9544,15 @@
         <v>PERPUSTAKAAN</v>
       </c>
       <c r="L163" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B164" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
@@ -9582,15 +9582,15 @@
         <v>FKIP</v>
       </c>
       <c r="L164" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B165" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C165" t="s">
         <v>13</v>
@@ -9620,15 +9620,15 @@
         <v>FKIP</v>
       </c>
       <c r="L165" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B166" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C166" t="s">
         <v>13</v>
@@ -9658,15 +9658,15 @@
         <v>FKIP</v>
       </c>
       <c r="L166" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B167" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
@@ -9696,15 +9696,15 @@
         <v>BUKK</v>
       </c>
       <c r="L167" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B168" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
@@ -9734,15 +9734,15 @@
         <v>BUKK</v>
       </c>
       <c r="L168" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B169" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
@@ -9755,7 +9755,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G169" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H169" t="s">
         <v>80</v>
@@ -9772,15 +9772,15 @@
         <v>BAKP</v>
       </c>
       <c r="L169" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B170" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C170" t="s">
         <v>13</v>
@@ -9793,7 +9793,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G170" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H170" t="s">
         <v>82</v>
@@ -9810,15 +9810,15 @@
         <v>FKIP</v>
       </c>
       <c r="L170" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B171" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
@@ -9831,7 +9831,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G171" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H171" t="s">
         <v>82</v>
@@ -9848,15 +9848,15 @@
         <v>BUKK</v>
       </c>
       <c r="L171" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B172" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
@@ -9869,7 +9869,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G172" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H172" t="s">
         <v>82</v>
@@ -9886,15 +9886,15 @@
         <v>FKIP</v>
       </c>
       <c r="L172" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B173" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
@@ -9907,7 +9907,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G173" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H173" t="s">
         <v>82</v>
@@ -9924,15 +9924,15 @@
         <v>BUKK</v>
       </c>
       <c r="L173" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B174" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
@@ -9945,7 +9945,7 @@
         <v>8_SLTP</v>
       </c>
       <c r="G174" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H174" t="s">
         <v>82</v>
@@ -9962,15 +9962,15 @@
         <v>BUKK</v>
       </c>
       <c r="L174" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B175" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C175" t="s">
         <v>13</v>
@@ -9983,7 +9983,7 @@
         <v>8_SLTP</v>
       </c>
       <c r="G175" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H175" t="s">
         <v>82</v>
@@ -10000,15 +10000,15 @@
         <v>BUKK</v>
       </c>
       <c r="L175" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B176" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
@@ -10038,15 +10038,15 @@
         <v>FKIP</v>
       </c>
       <c r="L176" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B177" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C177" t="s">
         <v>20</v>
@@ -10076,15 +10076,15 @@
         <v>FKIP</v>
       </c>
       <c r="L177" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B178" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
@@ -10114,7 +10114,7 @@
         <v>FKIP</v>
       </c>
       <c r="L178" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
@@ -10122,7 +10122,7 @@
         <v>20141001193</v>
       </c>
       <c r="B179" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
@@ -10135,7 +10135,7 @@
         <v>5_S1</v>
       </c>
       <c r="G179" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H179" t="s">
         <v>80</v>
@@ -10152,15 +10152,15 @@
         <v>FKIP</v>
       </c>
       <c r="L179" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B180" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C180" t="s">
         <v>20</v>
@@ -10190,21 +10190,21 @@
         <v>FKIP</v>
       </c>
       <c r="L180" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B181" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C181" t="s">
         <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E181" t="str">
         <f>VLOOKUP(D181,Sheet1!$H$2:$I$20,2,FALSE)</f>
@@ -10228,15 +10228,15 @@
         <v>FKIP</v>
       </c>
       <c r="L181" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B182" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C182" t="s">
         <v>20</v>
@@ -10266,15 +10266,15 @@
         <v>FKIP</v>
       </c>
       <c r="L182" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B183" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C183" t="s">
         <v>20</v>
@@ -10304,15 +10304,15 @@
         <v>FKIP</v>
       </c>
       <c r="L183" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B184" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C184" t="s">
         <v>13</v>
@@ -10325,7 +10325,7 @@
         <v>5_S1</v>
       </c>
       <c r="G184" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H184" t="s">
         <v>80</v>
@@ -10342,15 +10342,15 @@
         <v>FKIP</v>
       </c>
       <c r="L184" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B185" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C185" t="s">
         <v>20</v>
@@ -10380,15 +10380,15 @@
         <v>FKIP</v>
       </c>
       <c r="L185" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B186" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
@@ -10418,15 +10418,15 @@
         <v>FKIP</v>
       </c>
       <c r="L186" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B187" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
@@ -10439,7 +10439,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G187" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H187" t="s">
         <v>82</v>
@@ -10456,15 +10456,15 @@
         <v>BUKK</v>
       </c>
       <c r="L187" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B188" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
@@ -10494,15 +10494,15 @@
         <v>FKIP</v>
       </c>
       <c r="L188" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B189" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C189" t="s">
         <v>13</v>
@@ -10532,15 +10532,15 @@
         <v>FKIP</v>
       </c>
       <c r="L189" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B190" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
@@ -10553,7 +10553,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G190" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H190" t="s">
         <v>80</v>
@@ -10570,15 +10570,15 @@
         <v>Hukum</v>
       </c>
       <c r="L190" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B191" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C191" t="s">
         <v>20</v>
@@ -10591,7 +10591,7 @@
         <v>5_S1</v>
       </c>
       <c r="G191" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H191" t="s">
         <v>80</v>
@@ -10608,15 +10608,15 @@
         <v>Hukum</v>
       </c>
       <c r="L191" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B192" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
@@ -10629,7 +10629,7 @@
         <v>5_S1</v>
       </c>
       <c r="G192" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H192" t="s">
         <v>80</v>
@@ -10646,15 +10646,15 @@
         <v>Hukum</v>
       </c>
       <c r="L192" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B193" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
@@ -10667,7 +10667,7 @@
         <v>5_S1</v>
       </c>
       <c r="G193" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H193" t="s">
         <v>80</v>
@@ -10684,15 +10684,15 @@
         <v>Hukum</v>
       </c>
       <c r="L193" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B194" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
@@ -10705,7 +10705,7 @@
         <v>5_S1</v>
       </c>
       <c r="G194" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H194" t="s">
         <v>80</v>
@@ -10722,15 +10722,15 @@
         <v>BUKK</v>
       </c>
       <c r="L194" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B195" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C195" t="s">
         <v>20</v>
@@ -10743,7 +10743,7 @@
         <v>5_S1</v>
       </c>
       <c r="G195" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H195" t="s">
         <v>80</v>
@@ -10760,15 +10760,15 @@
         <v>FEB</v>
       </c>
       <c r="L195" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B196" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
@@ -10781,7 +10781,7 @@
         <v>5_S1</v>
       </c>
       <c r="G196" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H196" t="s">
         <v>80</v>
@@ -10798,15 +10798,15 @@
         <v>FEB</v>
       </c>
       <c r="L196" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B197" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C197" t="s">
         <v>20</v>
@@ -10819,7 +10819,7 @@
         <v>5_S1</v>
       </c>
       <c r="G197" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H197" t="s">
         <v>80</v>
@@ -10836,15 +10836,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L197" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B198" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C198" t="s">
         <v>20</v>
@@ -10857,7 +10857,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G198" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H198" t="s">
         <v>80</v>
@@ -10874,15 +10874,15 @@
         <v>BUKK</v>
       </c>
       <c r="L198" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B199" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C199" t="s">
         <v>20</v>
@@ -10895,7 +10895,7 @@
         <v>5_S1</v>
       </c>
       <c r="G199" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H199" t="s">
         <v>80</v>
@@ -10912,15 +10912,15 @@
         <v>LPPM</v>
       </c>
       <c r="L199" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B200" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
@@ -10933,13 +10933,13 @@
         <v>2_S2</v>
       </c>
       <c r="G200" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H200" t="s">
         <v>80</v>
       </c>
       <c r="I200" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J200" t="str">
         <f>VLOOKUP(I200,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -10950,15 +10950,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L200" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B201" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C201" t="s">
         <v>20</v>
@@ -10971,13 +10971,13 @@
         <v>5_S1</v>
       </c>
       <c r="G201" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H201" t="s">
         <v>80</v>
       </c>
       <c r="I201" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J201" t="str">
         <f>VLOOKUP(I201,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -10988,15 +10988,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L201" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B202" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C202" t="s">
         <v>20</v>
@@ -11009,13 +11009,13 @@
         <v>5_S1</v>
       </c>
       <c r="G202" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H202" t="s">
         <v>80</v>
       </c>
       <c r="I202" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J202" t="str">
         <f>VLOOKUP(I202,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -11026,15 +11026,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L202" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B203" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C203" t="s">
         <v>20</v>
@@ -11064,15 +11064,15 @@
         <v>Teknik</v>
       </c>
       <c r="L203" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B204" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C204" t="s">
         <v>20</v>
@@ -11102,15 +11102,15 @@
         <v>FISIP</v>
       </c>
       <c r="L204" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B205" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C205" t="s">
         <v>20</v>
@@ -11123,7 +11123,7 @@
         <v>5_S1</v>
       </c>
       <c r="G205" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H205" t="s">
         <v>80</v>
@@ -11140,15 +11140,15 @@
         <v>Teknik</v>
       </c>
       <c r="L205" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B206" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C206" t="s">
         <v>20</v>
@@ -11161,7 +11161,7 @@
         <v>5_S1</v>
       </c>
       <c r="G206" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H206" t="s">
         <v>80</v>
@@ -11178,15 +11178,15 @@
         <v>FISIP</v>
       </c>
       <c r="L206" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B207" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C207" t="s">
         <v>20</v>
@@ -11199,7 +11199,7 @@
         <v>5_S1</v>
       </c>
       <c r="G207" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H207" t="s">
         <v>80</v>
@@ -11216,15 +11216,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L207" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B208" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C208" t="s">
         <v>20</v>
@@ -11237,7 +11237,7 @@
         <v>5_S1</v>
       </c>
       <c r="G208" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H208" t="s">
         <v>80</v>
@@ -11254,15 +11254,15 @@
         <v>BUKK</v>
       </c>
       <c r="L208" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B209" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C209" t="s">
         <v>20</v>
@@ -11275,7 +11275,7 @@
         <v>5_S1</v>
       </c>
       <c r="G209" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H209" t="s">
         <v>80</v>
@@ -11292,15 +11292,15 @@
         <v>BUKK</v>
       </c>
       <c r="L209" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B210" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C210" t="s">
         <v>20</v>
@@ -11313,7 +11313,7 @@
         <v>6_Diploma</v>
       </c>
       <c r="G210" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H210" t="s">
         <v>80</v>
@@ -11330,15 +11330,15 @@
         <v>FISIP</v>
       </c>
       <c r="L210" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B211" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C211" t="s">
         <v>20</v>
@@ -11351,7 +11351,7 @@
         <v>5_S1</v>
       </c>
       <c r="G211" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H211" t="s">
         <v>80</v>
@@ -11368,15 +11368,15 @@
         <v>PLI</v>
       </c>
       <c r="L211" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B212" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C212" t="s">
         <v>20</v>
@@ -11406,15 +11406,15 @@
         <v>Teknik</v>
       </c>
       <c r="L212" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B213" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
@@ -11427,7 +11427,7 @@
         <v>5_S1</v>
       </c>
       <c r="G213" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H213" t="s">
         <v>80</v>
@@ -11444,15 +11444,15 @@
         <v>LP3M</v>
       </c>
       <c r="L213" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B214" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
@@ -11465,7 +11465,7 @@
         <v>5_S1</v>
       </c>
       <c r="G214" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H214" t="s">
         <v>80</v>
@@ -11482,15 +11482,15 @@
         <v>Teknik</v>
       </c>
       <c r="L214" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B215" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C215" t="s">
         <v>20</v>
@@ -11503,7 +11503,7 @@
         <v>6_Diploma</v>
       </c>
       <c r="G215" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H215" t="s">
         <v>80</v>
@@ -11520,15 +11520,15 @@
         <v>Teknik</v>
       </c>
       <c r="L215" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B216" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C216" t="s">
         <v>20</v>
@@ -11541,7 +11541,7 @@
         <v>5_S1</v>
       </c>
       <c r="G216" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H216" t="s">
         <v>80</v>
@@ -11558,15 +11558,15 @@
         <v>Teknik</v>
       </c>
       <c r="L216" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B217" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C217" t="s">
         <v>20</v>
@@ -11579,7 +11579,7 @@
         <v>5_S1</v>
       </c>
       <c r="G217" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H217" t="s">
         <v>80</v>
@@ -11596,15 +11596,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L217" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B218" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C218" t="s">
         <v>20</v>
@@ -11617,13 +11617,13 @@
         <v>5_S1</v>
       </c>
       <c r="G218" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H218" t="s">
         <v>80</v>
       </c>
       <c r="I218" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J218" t="str">
         <f>VLOOKUP(I218,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -11634,15 +11634,15 @@
         <v>PERPUSTAKAAN</v>
       </c>
       <c r="L218" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B219" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C219" t="s">
         <v>13</v>
@@ -11655,7 +11655,7 @@
         <v>5_S1</v>
       </c>
       <c r="G219" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H219" t="s">
         <v>80</v>
@@ -11672,15 +11672,15 @@
         <v>FKIP</v>
       </c>
       <c r="L219" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B220" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C220" t="s">
         <v>20</v>
@@ -11693,7 +11693,7 @@
         <v>5_S1</v>
       </c>
       <c r="G220" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H220" t="s">
         <v>80</v>
@@ -11710,15 +11710,15 @@
         <v>FEB</v>
       </c>
       <c r="L220" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B221" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C221" t="s">
         <v>13</v>
@@ -11731,7 +11731,7 @@
         <v>5_S1</v>
       </c>
       <c r="G221" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H221" t="s">
         <v>80</v>
@@ -11748,15 +11748,15 @@
         <v>LP3M</v>
       </c>
       <c r="L221" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B222" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C222" t="s">
         <v>20</v>
@@ -11769,7 +11769,7 @@
         <v>5_S1</v>
       </c>
       <c r="G222" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H222" t="s">
         <v>80</v>
@@ -11786,15 +11786,15 @@
         <v>FKIP</v>
       </c>
       <c r="L222" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B223" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
@@ -11824,15 +11824,15 @@
         <v>BUKK</v>
       </c>
       <c r="L223" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B224" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
@@ -11845,7 +11845,7 @@
         <v>5_S1</v>
       </c>
       <c r="G224" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H224" t="s">
         <v>80</v>
@@ -11862,15 +11862,15 @@
         <v>FISIP</v>
       </c>
       <c r="L224" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B225" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C225" t="s">
         <v>20</v>
@@ -11883,7 +11883,7 @@
         <v>5_S1</v>
       </c>
       <c r="G225" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H225" t="s">
         <v>80</v>
@@ -11900,15 +11900,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L225" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B226" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C226" t="s">
         <v>20</v>
@@ -11921,7 +11921,7 @@
         <v>5_S1</v>
       </c>
       <c r="G226" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H226" t="s">
         <v>80</v>
@@ -11938,15 +11938,15 @@
         <v>Hukum</v>
       </c>
       <c r="L226" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B227" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C227" t="s">
         <v>13</v>
@@ -11959,7 +11959,7 @@
         <v>5_S1</v>
       </c>
       <c r="G227" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H227" t="s">
         <v>80</v>
@@ -11976,15 +11976,15 @@
         <v>BAKP</v>
       </c>
       <c r="L227" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B228" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C228" t="s">
         <v>13</v>
@@ -11997,7 +11997,7 @@
         <v>5_S1</v>
       </c>
       <c r="G228" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H228" t="s">
         <v>80</v>
@@ -12014,15 +12014,15 @@
         <v>UPBK</v>
       </c>
       <c r="L228" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B229" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C229" t="s">
         <v>20</v>
@@ -12035,7 +12035,7 @@
         <v>5_S1</v>
       </c>
       <c r="G229" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H229" t="s">
         <v>80</v>
@@ -12052,15 +12052,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L229" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C230" t="s">
         <v>13</v>
@@ -12073,7 +12073,7 @@
         <v>5_S1</v>
       </c>
       <c r="G230" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H230" t="s">
         <v>80</v>
@@ -12090,15 +12090,15 @@
         <v>LP3M</v>
       </c>
       <c r="L230" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B231" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C231" t="s">
         <v>13</v>
@@ -12111,7 +12111,7 @@
         <v>5_S1</v>
       </c>
       <c r="G231" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H231" t="s">
         <v>80</v>
@@ -12128,15 +12128,15 @@
         <v>PLI</v>
       </c>
       <c r="L231" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B232" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C232" t="s">
         <v>13</v>
@@ -12166,15 +12166,15 @@
         <v>FKIP</v>
       </c>
       <c r="L232" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B233" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
@@ -12187,7 +12187,7 @@
         <v>5_S1</v>
       </c>
       <c r="G233" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H233" t="s">
         <v>80</v>
@@ -12204,15 +12204,15 @@
         <v>FEB</v>
       </c>
       <c r="L233" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B234" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C234" t="s">
         <v>20</v>
@@ -12225,7 +12225,7 @@
         <v>5_S1</v>
       </c>
       <c r="G234" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H234" t="s">
         <v>80</v>
@@ -12242,15 +12242,15 @@
         <v>FEB</v>
       </c>
       <c r="L234" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B235" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
@@ -12263,7 +12263,7 @@
         <v>5_S1</v>
       </c>
       <c r="G235" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H235" t="s">
         <v>80</v>
@@ -12280,15 +12280,15 @@
         <v>FISIP</v>
       </c>
       <c r="L235" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B236" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C236" t="s">
         <v>20</v>
@@ -12318,15 +12318,15 @@
         <v>BUKK</v>
       </c>
       <c r="L236" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B237" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C237" t="s">
         <v>20</v>
@@ -12339,7 +12339,7 @@
         <v>5_S1</v>
       </c>
       <c r="G237" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H237" t="s">
         <v>80</v>
@@ -12356,15 +12356,15 @@
         <v>FISIP</v>
       </c>
       <c r="L237" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B238" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C238" t="s">
         <v>20</v>
@@ -12377,7 +12377,7 @@
         <v>5_S1</v>
       </c>
       <c r="G238" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H238" t="s">
         <v>85</v>
@@ -12394,15 +12394,15 @@
         <v>BUKK</v>
       </c>
       <c r="L238" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B239" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
@@ -12432,15 +12432,15 @@
         <v>FKIP</v>
       </c>
       <c r="L239" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B240" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C240" t="s">
         <v>20</v>
@@ -12470,15 +12470,15 @@
         <v>BUKK</v>
       </c>
       <c r="L240" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B241" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
@@ -12491,7 +12491,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G241" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H241" t="s">
         <v>80</v>
@@ -12508,15 +12508,15 @@
         <v>FISIP</v>
       </c>
       <c r="L241" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B242" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C242" t="s">
         <v>13</v>
@@ -12529,13 +12529,13 @@
         <v>8_SLTP</v>
       </c>
       <c r="G242" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H242" t="s">
         <v>82</v>
       </c>
       <c r="I242" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J242" t="str">
         <f>VLOOKUP(I242,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -12546,15 +12546,15 @@
         <v>PERPUSTAKAAN</v>
       </c>
       <c r="L242" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B243" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C243" t="s">
         <v>13</v>
@@ -12567,7 +12567,7 @@
         <v>8_SLTP</v>
       </c>
       <c r="G243" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H243" t="s">
         <v>82</v>
@@ -12584,15 +12584,15 @@
         <v>BAKP</v>
       </c>
       <c r="L243" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B244" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C244" t="s">
         <v>13</v>
@@ -12622,15 +12622,15 @@
         <v>FEB</v>
       </c>
       <c r="L244" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B245" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C245" t="s">
         <v>20</v>
@@ -12643,7 +12643,7 @@
         <v>2_S2</v>
       </c>
       <c r="G245" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H245" t="s">
         <v>80</v>
@@ -12660,15 +12660,15 @@
         <v>UPBK</v>
       </c>
       <c r="L245" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B246" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C246" t="s">
         <v>13</v>
@@ -12681,7 +12681,7 @@
         <v>5_S1</v>
       </c>
       <c r="G246" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H246" t="s">
         <v>80</v>
@@ -12698,15 +12698,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L246" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B247" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C247" t="s">
         <v>13</v>
@@ -12733,15 +12733,15 @@
         <v>ULP</v>
       </c>
       <c r="L247" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B248" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C248" t="s">
         <v>13</v>
@@ -12754,7 +12754,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G248" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H248" t="s">
         <v>80</v>
@@ -12771,15 +12771,15 @@
         <v>UPBK</v>
       </c>
       <c r="L248" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B249" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
@@ -12809,15 +12809,15 @@
         <v>Teknik</v>
       </c>
       <c r="L249" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B250" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C250" t="s">
         <v>13</v>
@@ -12847,15 +12847,15 @@
         <v>Teknik</v>
       </c>
       <c r="L250" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B251" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C251" t="s">
         <v>13</v>
@@ -12885,15 +12885,15 @@
         <v>Teknik</v>
       </c>
       <c r="L251" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B252" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C252" t="s">
         <v>13</v>
@@ -12923,15 +12923,15 @@
         <v>Teknik</v>
       </c>
       <c r="L252" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B253" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C253" t="s">
         <v>20</v>
@@ -12944,7 +12944,7 @@
         <v>5_S1</v>
       </c>
       <c r="G253" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H253" t="s">
         <v>80</v>
@@ -12961,15 +12961,15 @@
         <v>SPI</v>
       </c>
       <c r="L253" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B254" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C254" t="s">
         <v>20</v>
@@ -12982,7 +12982,7 @@
         <v>5_S1</v>
       </c>
       <c r="G254" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H254" t="s">
         <v>85</v>
@@ -12992,22 +12992,22 @@
       </c>
       <c r="J254" t="str">
         <f>VLOOKUP(I254,Sheet1!$B$20:$C$42,2,FALSE)</f>
-        <v>98_KLINIK</v>
+        <v>98_Klinik</v>
       </c>
       <c r="K254" t="str">
         <f t="shared" si="3"/>
-        <v>KLINIK</v>
+        <v>Klinik</v>
       </c>
       <c r="L254" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B255" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C255" t="s">
         <v>13</v>
@@ -13020,7 +13020,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G255" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H255" t="s">
         <v>86</v>
@@ -13037,15 +13037,15 @@
         <v>BUKK</v>
       </c>
       <c r="L255" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B256" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C256" t="s">
         <v>13</v>
@@ -13058,7 +13058,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G256" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H256" t="s">
         <v>86</v>
@@ -13075,15 +13075,15 @@
         <v>FKIP</v>
       </c>
       <c r="L256" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B257" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C257" t="s">
         <v>20</v>
@@ -13096,32 +13096,32 @@
         <v>5_S1</v>
       </c>
       <c r="G257" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H257" t="s">
         <v>85</v>
       </c>
       <c r="I257" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J257" t="str">
         <f>VLOOKUP(I257,Sheet1!$B$20:$C$42,2,FALSE)</f>
-        <v>98_KLINIK</v>
+        <v>98_Klinik</v>
       </c>
       <c r="K257" t="str">
         <f t="shared" si="3"/>
-        <v>KLINIK</v>
+        <v>Klinik</v>
       </c>
       <c r="L257" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B258" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C258" t="s">
         <v>13</v>
@@ -13151,15 +13151,15 @@
         <v>FKIP</v>
       </c>
       <c r="L258" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B259" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C259" t="s">
         <v>13</v>
@@ -13189,15 +13189,15 @@
         <v>FKIP</v>
       </c>
       <c r="L259" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B260" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C260" t="s">
         <v>13</v>
@@ -13227,15 +13227,15 @@
         <v>BUKK</v>
       </c>
       <c r="L260" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B261" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C261" t="s">
         <v>13</v>
@@ -13248,7 +13248,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G261" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H261" t="s">
         <v>86</v>
@@ -13265,15 +13265,15 @@
         <v>BUKK</v>
       </c>
       <c r="L261" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B262" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
@@ -13286,7 +13286,7 @@
         <v>8_SLTP</v>
       </c>
       <c r="G262" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H262" t="s">
         <v>86</v>
@@ -13303,15 +13303,15 @@
         <v>BUKK</v>
       </c>
       <c r="L262" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B263" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C263" t="s">
         <v>20</v>
@@ -13324,7 +13324,7 @@
         <v>5_S1</v>
       </c>
       <c r="G263" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H263" t="s">
         <v>80</v>
@@ -13341,15 +13341,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L263" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B264" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C264" t="s">
         <v>20</v>
@@ -13362,7 +13362,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G264" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H264" t="s">
         <v>80</v>
@@ -13379,15 +13379,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L264" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B265" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C265" t="s">
         <v>20</v>
@@ -13400,7 +13400,7 @@
         <v>8_SLTP</v>
       </c>
       <c r="G265" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H265" t="s">
         <v>82</v>
@@ -13417,15 +13417,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L265" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B266" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C266" t="s">
         <v>20</v>
@@ -13438,7 +13438,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G266" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H266" t="s">
         <v>80</v>
@@ -13455,15 +13455,15 @@
         <v>FEB</v>
       </c>
       <c r="L266" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B267" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C267" t="s">
         <v>20</v>
@@ -13476,7 +13476,7 @@
         <v>9_SD</v>
       </c>
       <c r="G267" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H267" t="s">
         <v>82</v>
@@ -13493,15 +13493,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L267" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B268" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C268" t="s">
         <v>20</v>
@@ -13514,7 +13514,7 @@
         <v>5_S1</v>
       </c>
       <c r="G268" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H268" t="s">
         <v>80</v>
@@ -13531,15 +13531,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L268" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B269" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C269" t="s">
         <v>13</v>
@@ -13552,7 +13552,7 @@
         <v>5_S1</v>
       </c>
       <c r="G269" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H269" t="s">
         <v>80</v>
@@ -13569,15 +13569,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L269" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B270" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C270" t="s">
         <v>20</v>
@@ -13590,7 +13590,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G270" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H270" t="s">
         <v>82</v>
@@ -13607,15 +13607,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L270" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B271" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C271" t="s">
         <v>20</v>
@@ -13628,7 +13628,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G271" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H271" t="s">
         <v>80</v>
@@ -13645,15 +13645,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L271" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B272" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C272" t="s">
         <v>13</v>
@@ -13666,7 +13666,7 @@
         <v>9_SD</v>
       </c>
       <c r="G272" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H272" t="s">
         <v>82</v>
@@ -13683,15 +13683,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L272" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B273" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C273" t="s">
         <v>13</v>
@@ -13704,7 +13704,7 @@
         <v>8_SLTP</v>
       </c>
       <c r="G273" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H273" t="s">
         <v>82</v>
@@ -13721,15 +13721,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L273" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B274" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
@@ -13742,7 +13742,7 @@
         <v>7_SLTA</v>
       </c>
       <c r="G274" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H274" t="s">
         <v>80</v>
@@ -13759,15 +13759,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L274" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B275" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C275" t="s">
         <v>20</v>
@@ -13780,7 +13780,7 @@
         <v>5_S1</v>
       </c>
       <c r="G275" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H275" t="s">
         <v>80</v>
@@ -13797,15 +13797,15 @@
         <v>FISIP</v>
       </c>
       <c r="L275" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B276" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C276" t="s">
         <v>20</v>
@@ -13818,7 +13818,7 @@
         <v>5_S1</v>
       </c>
       <c r="G276" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H276" t="s">
         <v>80</v>
@@ -13835,15 +13835,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L276" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B277" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C277" t="s">
         <v>20</v>
@@ -13873,15 +13873,15 @@
         <v>FEB</v>
       </c>
       <c r="L277" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B278" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C278" t="s">
         <v>13</v>
@@ -13894,7 +13894,7 @@
         <v>5_S1</v>
       </c>
       <c r="G278" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H278" t="s">
         <v>80</v>
@@ -13911,15 +13911,15 @@
         <v>SPI</v>
       </c>
       <c r="L278" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B279" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C279" t="s">
         <v>20</v>
@@ -13932,7 +13932,7 @@
         <v>5_S1</v>
       </c>
       <c r="G279" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H279" t="s">
         <v>80</v>
@@ -13949,15 +13949,15 @@
         <v>PLI</v>
       </c>
       <c r="L279" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B280" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C280" t="s">
         <v>13</v>
@@ -13970,7 +13970,7 @@
         <v>5_S1</v>
       </c>
       <c r="G280" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H280" t="s">
         <v>80</v>
@@ -13987,15 +13987,15 @@
         <v>Hukum</v>
       </c>
       <c r="L280" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B281" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C281" t="s">
         <v>20</v>
@@ -14008,7 +14008,7 @@
         <v>5_S1</v>
       </c>
       <c r="G281" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H281" t="s">
         <v>80</v>
@@ -14025,15 +14025,15 @@
         <v>BAKP</v>
       </c>
       <c r="L281" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B282" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C282" t="s">
         <v>13</v>
@@ -14046,13 +14046,13 @@
         <v>5_S1</v>
       </c>
       <c r="G282" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H282" t="s">
         <v>80</v>
       </c>
       <c r="I282" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J282" t="str">
         <f>VLOOKUP(I282,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -14063,15 +14063,15 @@
         <v>Pascasarjana</v>
       </c>
       <c r="L282" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B283" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C283" t="s">
         <v>13</v>
@@ -14084,7 +14084,7 @@
         <v>5_S1</v>
       </c>
       <c r="G283" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H283" t="s">
         <v>84</v>
@@ -14101,15 +14101,15 @@
         <v>PUSDAINFO</v>
       </c>
       <c r="L283" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B284" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C284" t="s">
         <v>20</v>
@@ -14122,7 +14122,7 @@
         <v>6_Diploma</v>
       </c>
       <c r="G284" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H284" t="s">
         <v>80</v>
@@ -14139,15 +14139,15 @@
         <v>BUKK</v>
       </c>
       <c r="L284" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B285" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C285" t="s">
         <v>13</v>
@@ -14160,7 +14160,7 @@
         <v>5_S1</v>
       </c>
       <c r="G285" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H285" t="s">
         <v>80</v>
@@ -14177,15 +14177,15 @@
         <v>PUSDAINFO</v>
       </c>
       <c r="L285" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B286" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C286" t="s">
         <v>13</v>
@@ -14198,7 +14198,7 @@
         <v>5_S1</v>
       </c>
       <c r="G286" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H286" t="s">
         <v>80</v>
@@ -14215,15 +14215,15 @@
         <v>ULP</v>
       </c>
       <c r="L286" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B287" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C287" t="s">
         <v>13</v>
@@ -14236,13 +14236,13 @@
         <v>5_S1</v>
       </c>
       <c r="G287" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H287" t="s">
         <v>80</v>
       </c>
       <c r="I287" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J287" t="str">
         <f>VLOOKUP(I287,Sheet1!$B$20:$C$42,2,FALSE)</f>
@@ -14253,15 +14253,15 @@
         <v>PERPUSTAKAAN</v>
       </c>
       <c r="L287" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B288" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C288" t="s">
         <v>20</v>
@@ -14274,7 +14274,7 @@
         <v>5_S1</v>
       </c>
       <c r="G288" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H288" t="s">
         <v>80</v>
@@ -14291,15 +14291,15 @@
         <v>Hukum</v>
       </c>
       <c r="L288" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B289" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C289" t="s">
         <v>13</v>
@@ -14312,7 +14312,7 @@
         <v>5_S1</v>
       </c>
       <c r="G289" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H289" t="s">
         <v>80</v>
@@ -14329,15 +14329,15 @@
         <v>FISIP</v>
       </c>
       <c r="L289" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B290" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C290" t="s">
         <v>20</v>
@@ -14350,7 +14350,7 @@
         <v>5_S1</v>
       </c>
       <c r="G290" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H290" t="s">
         <v>80</v>
@@ -14367,15 +14367,15 @@
         <v>Teknik</v>
       </c>
       <c r="L290" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B291" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C291" t="s">
         <v>20</v>
@@ -14388,7 +14388,7 @@
         <v>5_S1</v>
       </c>
       <c r="G291" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H291" t="s">
         <v>80</v>
@@ -14405,15 +14405,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L291" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B292" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C292" t="s">
         <v>13</v>
@@ -14426,7 +14426,7 @@
         <v>5_S1</v>
       </c>
       <c r="G292" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H292" t="s">
         <v>80</v>
@@ -14443,15 +14443,15 @@
         <v>LP3M</v>
       </c>
       <c r="L292" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B293" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C293" t="s">
         <v>13</v>
@@ -14464,7 +14464,7 @@
         <v>5_S1</v>
       </c>
       <c r="G293" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H293" t="s">
         <v>84</v>
@@ -14481,15 +14481,15 @@
         <v>PUSDAINFO</v>
       </c>
       <c r="L293" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B294" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C294" t="s">
         <v>13</v>
@@ -14502,7 +14502,7 @@
         <v>5_S1</v>
       </c>
       <c r="G294" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H294" t="s">
         <v>80</v>
@@ -14519,15 +14519,15 @@
         <v>FKIP</v>
       </c>
       <c r="L294" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B295" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C295" t="s">
         <v>13</v>
@@ -14540,7 +14540,7 @@
         <v>5_S1</v>
       </c>
       <c r="G295" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H295" t="s">
         <v>80</v>
@@ -14557,15 +14557,15 @@
         <v>FKIP</v>
       </c>
       <c r="L295" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B296" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C296" t="s">
         <v>20</v>
@@ -14578,7 +14578,7 @@
         <v>5_S1</v>
       </c>
       <c r="G296" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H296" t="s">
         <v>80</v>
@@ -14595,15 +14595,15 @@
         <v>Pertanian</v>
       </c>
       <c r="L296" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B297" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C297" t="s">
         <v>20</v>
@@ -14633,15 +14633,15 @@
         <v>Teknik</v>
       </c>
       <c r="L297" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B298" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C298" t="s">
         <v>13</v>
@@ -14654,7 +14654,7 @@
         <v>5_S1</v>
       </c>
       <c r="G298" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H298" t="s">
         <v>80</v>
@@ -14671,15 +14671,15 @@
         <v>FKIP</v>
       </c>
       <c r="L298" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B299" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C299" t="s">
         <v>20</v>
@@ -14692,7 +14692,7 @@
         <v>5_S1</v>
       </c>
       <c r="G299" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H299" t="s">
         <v>80</v>
@@ -14709,15 +14709,15 @@
         <v>Kedokteran</v>
       </c>
       <c r="L299" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B300" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C300" t="s">
         <v>13</v>
@@ -14730,7 +14730,7 @@
         <v>5_S1</v>
       </c>
       <c r="G300" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H300" t="s">
         <v>80</v>
@@ -14747,15 +14747,15 @@
         <v>BUKK</v>
       </c>
       <c r="L300" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B301" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C301" t="s">
         <v>20</v>
@@ -14782,15 +14782,15 @@
         <v>Teknik</v>
       </c>
       <c r="L301" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B302" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C302" t="s">
         <v>20</v>
@@ -14817,15 +14817,15 @@
         <v>Teknik</v>
       </c>
       <c r="L302" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B303" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C303" t="s">
         <v>13</v>
@@ -14852,15 +14852,15 @@
         <v>Teknik</v>
       </c>
       <c r="L303" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B304" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C304" t="s">
         <v>20</v>
@@ -14887,7 +14887,7 @@
         <v>Teknik</v>
       </c>
       <c r="L304" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -14901,8 +14901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15240,7 +15240,7 @@
         <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I20" t="s">
         <v>69</v>
@@ -15307,7 +15307,7 @@
         <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
@@ -15366,7 +15366,7 @@
         <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" t="s">
         <v>91</v>
@@ -15377,7 +15377,7 @@
         <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
         <v>90</v>
@@ -15388,7 +15388,7 @@
         <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G37" t="s">
         <v>108</v>
@@ -15399,7 +15399,7 @@
         <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G38" t="s">
         <v>109</v>
@@ -15410,7 +15410,7 @@
         <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>818</v>
       </c>
       <c r="G39" t="s">
         <v>110</v>
@@ -15421,7 +15421,7 @@
         <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>818</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -15432,7 +15432,7 @@
         <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
@@ -15440,7 +15440,7 @@
         <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
